--- a/data/panelapp/uk/Inborn errors of metabolism.xlsx
+++ b/data/panelapp/uk/Inborn errors of metabolism.xlsx
@@ -8,6 +8,7 @@
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="metadata" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -486,7 +487,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.918850</t>
+          <t>2021-10-05 14:21:04.236996</t>
         </is>
       </c>
     </row>
@@ -516,7 +517,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.918862</t>
+          <t>2021-10-05 14:21:04.237005</t>
         </is>
       </c>
     </row>
@@ -546,7 +547,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.918866</t>
+          <t>2021-10-05 14:21:04.237008</t>
         </is>
       </c>
     </row>
@@ -576,7 +577,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.918868</t>
+          <t>2021-10-05 14:21:04.237012</t>
         </is>
       </c>
     </row>
@@ -606,7 +607,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.918871</t>
+          <t>2021-10-05 14:21:04.237015</t>
         </is>
       </c>
     </row>
@@ -636,7 +637,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.918874</t>
+          <t>2021-10-05 14:21:04.237018</t>
         </is>
       </c>
     </row>
@@ -666,7 +667,7 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.918876</t>
+          <t>2021-10-05 14:21:04.237020</t>
         </is>
       </c>
     </row>
@@ -696,7 +697,7 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.918879</t>
+          <t>2021-10-05 14:21:04.237023</t>
         </is>
       </c>
     </row>
@@ -726,7 +727,7 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.918882</t>
+          <t>2021-10-05 14:21:04.237026</t>
         </is>
       </c>
     </row>
@@ -756,7 +757,7 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.918884</t>
+          <t>2021-10-05 14:21:04.237029</t>
         </is>
       </c>
     </row>
@@ -786,7 +787,7 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.918887</t>
+          <t>2021-10-05 14:21:04.237032</t>
         </is>
       </c>
     </row>
@@ -816,7 +817,7 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.918890</t>
+          <t>2021-10-05 14:21:04.237035</t>
         </is>
       </c>
     </row>
@@ -846,7 +847,7 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.918892</t>
+          <t>2021-10-05 14:21:04.237038</t>
         </is>
       </c>
     </row>
@@ -876,7 +877,7 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.918895</t>
+          <t>2021-10-05 14:21:04.237040</t>
         </is>
       </c>
     </row>
@@ -906,7 +907,7 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.918897</t>
+          <t>2021-10-05 14:21:04.237043</t>
         </is>
       </c>
     </row>
@@ -936,7 +937,7 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.918900</t>
+          <t>2021-10-05 14:21:04.237046</t>
         </is>
       </c>
     </row>
@@ -966,7 +967,7 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.918903</t>
+          <t>2021-10-05 14:21:04.237049</t>
         </is>
       </c>
     </row>
@@ -996,7 +997,7 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.918906</t>
+          <t>2021-10-05 14:21:04.237052</t>
         </is>
       </c>
     </row>
@@ -1026,7 +1027,7 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.918909</t>
+          <t>2021-10-05 14:21:04.237055</t>
         </is>
       </c>
     </row>
@@ -1056,7 +1057,7 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.918911</t>
+          <t>2021-10-05 14:21:04.237057</t>
         </is>
       </c>
     </row>
@@ -1086,7 +1087,7 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.918914</t>
+          <t>2021-10-05 14:21:04.237060</t>
         </is>
       </c>
     </row>
@@ -1116,7 +1117,7 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.918917</t>
+          <t>2021-10-05 14:21:04.237063</t>
         </is>
       </c>
     </row>
@@ -1146,7 +1147,7 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.918919</t>
+          <t>2021-10-05 14:21:04.237066</t>
         </is>
       </c>
     </row>
@@ -1176,7 +1177,7 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.918922</t>
+          <t>2021-10-05 14:21:04.237069</t>
         </is>
       </c>
     </row>
@@ -1206,7 +1207,7 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.918925</t>
+          <t>2021-10-05 14:21:04.237072</t>
         </is>
       </c>
     </row>
@@ -1236,7 +1237,7 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.918927</t>
+          <t>2021-10-05 14:21:04.237075</t>
         </is>
       </c>
     </row>
@@ -1266,7 +1267,7 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.918930</t>
+          <t>2021-10-05 14:21:04.237078</t>
         </is>
       </c>
     </row>
@@ -1296,7 +1297,7 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.918933</t>
+          <t>2021-10-05 14:21:04.237081</t>
         </is>
       </c>
     </row>
@@ -1326,7 +1327,7 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.918935</t>
+          <t>2021-10-05 14:21:04.237084</t>
         </is>
       </c>
     </row>
@@ -1356,7 +1357,7 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.918938</t>
+          <t>2021-10-05 14:21:04.237086</t>
         </is>
       </c>
     </row>
@@ -1386,7 +1387,7 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.918940</t>
+          <t>2021-10-05 14:21:04.237089</t>
         </is>
       </c>
     </row>
@@ -1416,7 +1417,7 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.918943</t>
+          <t>2021-10-05 14:21:04.237092</t>
         </is>
       </c>
     </row>
@@ -1446,7 +1447,7 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.918946</t>
+          <t>2021-10-05 14:21:04.237095</t>
         </is>
       </c>
     </row>
@@ -1476,7 +1477,7 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.918949</t>
+          <t>2021-10-05 14:21:04.237098</t>
         </is>
       </c>
     </row>
@@ -1506,7 +1507,7 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.918951</t>
+          <t>2021-10-05 14:21:04.237101</t>
         </is>
       </c>
     </row>
@@ -1536,7 +1537,7 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.918954</t>
+          <t>2021-10-05 14:21:04.237104</t>
         </is>
       </c>
     </row>
@@ -1566,7 +1567,7 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.918956</t>
+          <t>2021-10-05 14:21:04.237106</t>
         </is>
       </c>
     </row>
@@ -1596,7 +1597,7 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.918959</t>
+          <t>2021-10-05 14:21:04.237109</t>
         </is>
       </c>
     </row>
@@ -1626,7 +1627,7 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.918962</t>
+          <t>2021-10-05 14:21:04.237112</t>
         </is>
       </c>
     </row>
@@ -1656,7 +1657,7 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.918964</t>
+          <t>2021-10-05 14:21:04.237115</t>
         </is>
       </c>
     </row>
@@ -1686,7 +1687,7 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.918967</t>
+          <t>2021-10-05 14:21:04.237118</t>
         </is>
       </c>
     </row>
@@ -1716,7 +1717,7 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.918970</t>
+          <t>2021-10-05 14:21:04.237121</t>
         </is>
       </c>
     </row>
@@ -1746,7 +1747,7 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.918972</t>
+          <t>2021-10-05 14:21:04.237124</t>
         </is>
       </c>
     </row>
@@ -1776,7 +1777,7 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.918975</t>
+          <t>2021-10-05 14:21:04.237127</t>
         </is>
       </c>
     </row>
@@ -1806,7 +1807,7 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.918978</t>
+          <t>2021-10-05 14:21:04.237130</t>
         </is>
       </c>
     </row>
@@ -1836,7 +1837,7 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.918980</t>
+          <t>2021-10-05 14:21:04.237132</t>
         </is>
       </c>
     </row>
@@ -1866,7 +1867,7 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.918983</t>
+          <t>2021-10-05 14:21:04.237135</t>
         </is>
       </c>
     </row>
@@ -1896,7 +1897,7 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.918985</t>
+          <t>2021-10-05 14:21:04.237138</t>
         </is>
       </c>
     </row>
@@ -1926,7 +1927,7 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.918988</t>
+          <t>2021-10-05 14:21:04.237141</t>
         </is>
       </c>
     </row>
@@ -1956,7 +1957,7 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.918990</t>
+          <t>2021-10-05 14:21:04.237145</t>
         </is>
       </c>
     </row>
@@ -1986,7 +1987,7 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.918993</t>
+          <t>2021-10-05 14:21:04.237150</t>
         </is>
       </c>
     </row>
@@ -2016,7 +2017,7 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.918995</t>
+          <t>2021-10-05 14:21:04.237154</t>
         </is>
       </c>
     </row>
@@ -2046,7 +2047,7 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.918998</t>
+          <t>2021-10-05 14:21:04.237159</t>
         </is>
       </c>
     </row>
@@ -2076,7 +2077,7 @@
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.919001</t>
+          <t>2021-10-05 14:21:04.237164</t>
         </is>
       </c>
     </row>
@@ -2106,7 +2107,7 @@
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.919003</t>
+          <t>2021-10-05 14:21:04.237169</t>
         </is>
       </c>
     </row>
@@ -2136,7 +2137,7 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.919006</t>
+          <t>2021-10-05 14:21:04.237173</t>
         </is>
       </c>
     </row>
@@ -2166,7 +2167,7 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.919009</t>
+          <t>2021-10-05 14:21:04.237178</t>
         </is>
       </c>
     </row>
@@ -2196,7 +2197,7 @@
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.919011</t>
+          <t>2021-10-05 14:21:04.237183</t>
         </is>
       </c>
     </row>
@@ -2226,7 +2227,7 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.919013</t>
+          <t>2021-10-05 14:21:04.237186</t>
         </is>
       </c>
     </row>
@@ -2256,7 +2257,7 @@
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.919016</t>
+          <t>2021-10-05 14:21:04.237189</t>
         </is>
       </c>
     </row>
@@ -2286,7 +2287,7 @@
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.919019</t>
+          <t>2021-10-05 14:21:04.237193</t>
         </is>
       </c>
     </row>
@@ -2316,7 +2317,7 @@
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.919021</t>
+          <t>2021-10-05 14:21:04.237196</t>
         </is>
       </c>
     </row>
@@ -2346,7 +2347,7 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.919023</t>
+          <t>2021-10-05 14:21:04.237200</t>
         </is>
       </c>
     </row>
@@ -2376,7 +2377,7 @@
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.919026</t>
+          <t>2021-10-05 14:21:04.237203</t>
         </is>
       </c>
     </row>
@@ -2406,7 +2407,7 @@
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.919030</t>
+          <t>2021-10-05 14:21:04.237207</t>
         </is>
       </c>
     </row>
@@ -2436,7 +2437,7 @@
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.919032</t>
+          <t>2021-10-05 14:21:04.237210</t>
         </is>
       </c>
     </row>
@@ -2466,7 +2467,7 @@
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.919035</t>
+          <t>2021-10-05 14:21:04.237213</t>
         </is>
       </c>
     </row>
@@ -2496,7 +2497,7 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.919038</t>
+          <t>2021-10-05 14:21:04.237216</t>
         </is>
       </c>
     </row>
@@ -2526,7 +2527,7 @@
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.919041</t>
+          <t>2021-10-05 14:21:04.237218</t>
         </is>
       </c>
     </row>
@@ -2556,7 +2557,7 @@
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.919043</t>
+          <t>2021-10-05 14:21:04.237221</t>
         </is>
       </c>
     </row>
@@ -2586,7 +2587,7 @@
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.919046</t>
+          <t>2021-10-05 14:21:04.237224</t>
         </is>
       </c>
     </row>
@@ -2616,7 +2617,7 @@
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.919049</t>
+          <t>2021-10-05 14:21:04.237227</t>
         </is>
       </c>
     </row>
@@ -2646,7 +2647,7 @@
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.919051</t>
+          <t>2021-10-05 14:21:04.237229</t>
         </is>
       </c>
     </row>
@@ -2676,7 +2677,7 @@
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.919054</t>
+          <t>2021-10-05 14:21:04.237233</t>
         </is>
       </c>
     </row>
@@ -2706,7 +2707,7 @@
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.919056</t>
+          <t>2021-10-05 14:21:04.237235</t>
         </is>
       </c>
     </row>
@@ -2736,7 +2737,7 @@
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.919059</t>
+          <t>2021-10-05 14:21:04.237238</t>
         </is>
       </c>
     </row>
@@ -2766,7 +2767,7 @@
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.919063</t>
+          <t>2021-10-05 14:21:04.237243</t>
         </is>
       </c>
     </row>
@@ -2796,7 +2797,7 @@
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.919067</t>
+          <t>2021-10-05 14:21:04.237247</t>
         </is>
       </c>
     </row>
@@ -2826,7 +2827,7 @@
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.919069</t>
+          <t>2021-10-05 14:21:04.237249</t>
         </is>
       </c>
     </row>
@@ -2856,7 +2857,7 @@
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.919072</t>
+          <t>2021-10-05 14:21:04.237252</t>
         </is>
       </c>
     </row>
@@ -2886,7 +2887,7 @@
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.919074</t>
+          <t>2021-10-05 14:21:04.237255</t>
         </is>
       </c>
     </row>
@@ -2916,7 +2917,7 @@
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.919077</t>
+          <t>2021-10-05 14:21:04.237258</t>
         </is>
       </c>
     </row>
@@ -2946,7 +2947,7 @@
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.919079</t>
+          <t>2021-10-05 14:21:04.237260</t>
         </is>
       </c>
     </row>
@@ -2976,7 +2977,7 @@
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.919082</t>
+          <t>2021-10-05 14:21:04.237263</t>
         </is>
       </c>
     </row>
@@ -3006,7 +3007,7 @@
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.919084</t>
+          <t>2021-10-05 14:21:04.237265</t>
         </is>
       </c>
     </row>
@@ -3036,7 +3037,7 @@
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.919087</t>
+          <t>2021-10-05 14:21:04.237268</t>
         </is>
       </c>
     </row>
@@ -3066,7 +3067,7 @@
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.919089</t>
+          <t>2021-10-05 14:21:04.237271</t>
         </is>
       </c>
     </row>
@@ -3096,7 +3097,7 @@
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.919092</t>
+          <t>2021-10-05 14:21:04.237273</t>
         </is>
       </c>
     </row>
@@ -3126,7 +3127,7 @@
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.919095</t>
+          <t>2021-10-05 14:21:04.237276</t>
         </is>
       </c>
     </row>
@@ -3156,7 +3157,7 @@
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.919097</t>
+          <t>2021-10-05 14:21:04.237278</t>
         </is>
       </c>
     </row>
@@ -3186,7 +3187,7 @@
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.919100</t>
+          <t>2021-10-05 14:21:04.237281</t>
         </is>
       </c>
     </row>
@@ -3216,7 +3217,7 @@
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.919102</t>
+          <t>2021-10-05 14:21:04.237284</t>
         </is>
       </c>
     </row>
@@ -3246,7 +3247,7 @@
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.919106</t>
+          <t>2021-10-05 14:21:04.237288</t>
         </is>
       </c>
     </row>
@@ -3276,7 +3277,7 @@
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.919109</t>
+          <t>2021-10-05 14:21:04.237291</t>
         </is>
       </c>
     </row>
@@ -3306,7 +3307,7 @@
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.919111</t>
+          <t>2021-10-05 14:21:04.237294</t>
         </is>
       </c>
     </row>
@@ -3336,7 +3337,7 @@
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.919114</t>
+          <t>2021-10-05 14:21:04.237296</t>
         </is>
       </c>
     </row>
@@ -3366,7 +3367,7 @@
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.919116</t>
+          <t>2021-10-05 14:21:04.237299</t>
         </is>
       </c>
     </row>
@@ -3396,7 +3397,7 @@
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.919119</t>
+          <t>2021-10-05 14:21:04.237302</t>
         </is>
       </c>
     </row>
@@ -3426,7 +3427,7 @@
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.919121</t>
+          <t>2021-10-05 14:21:04.237304</t>
         </is>
       </c>
     </row>
@@ -3456,7 +3457,7 @@
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.919124</t>
+          <t>2021-10-05 14:21:04.237307</t>
         </is>
       </c>
     </row>
@@ -3486,7 +3487,7 @@
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.919126</t>
+          <t>2021-10-05 14:21:04.237310</t>
         </is>
       </c>
     </row>
@@ -3516,7 +3517,7 @@
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.919129</t>
+          <t>2021-10-05 14:21:04.237312</t>
         </is>
       </c>
     </row>
@@ -3546,7 +3547,7 @@
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.919131</t>
+          <t>2021-10-05 14:21:04.237315</t>
         </is>
       </c>
     </row>
@@ -3576,7 +3577,7 @@
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.919134</t>
+          <t>2021-10-05 14:21:04.237317</t>
         </is>
       </c>
     </row>
@@ -3606,7 +3607,7 @@
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.919137</t>
+          <t>2021-10-05 14:21:04.237320</t>
         </is>
       </c>
     </row>
@@ -3636,7 +3637,7 @@
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.919139</t>
+          <t>2021-10-05 14:21:04.237323</t>
         </is>
       </c>
     </row>
@@ -3666,7 +3667,7 @@
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.919142</t>
+          <t>2021-10-05 14:21:04.237325</t>
         </is>
       </c>
     </row>
@@ -3696,7 +3697,7 @@
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.919145</t>
+          <t>2021-10-05 14:21:04.237328</t>
         </is>
       </c>
     </row>
@@ -3726,7 +3727,7 @@
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.919149</t>
+          <t>2021-10-05 14:21:04.237333</t>
         </is>
       </c>
     </row>
@@ -3756,7 +3757,7 @@
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.919152</t>
+          <t>2021-10-05 14:21:04.237336</t>
         </is>
       </c>
     </row>
@@ -3786,7 +3787,7 @@
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.919155</t>
+          <t>2021-10-05 14:21:04.237340</t>
         </is>
       </c>
     </row>
@@ -3816,7 +3817,7 @@
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.919157</t>
+          <t>2021-10-05 14:21:04.237342</t>
         </is>
       </c>
     </row>
@@ -3846,7 +3847,7 @@
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.919160</t>
+          <t>2021-10-05 14:21:04.237346</t>
         </is>
       </c>
     </row>
@@ -3876,7 +3877,7 @@
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.919162</t>
+          <t>2021-10-05 14:21:04.237348</t>
         </is>
       </c>
     </row>
@@ -3906,7 +3907,7 @@
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.919165</t>
+          <t>2021-10-05 14:21:04.237351</t>
         </is>
       </c>
     </row>
@@ -3936,7 +3937,7 @@
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.919167</t>
+          <t>2021-10-05 14:21:04.237354</t>
         </is>
       </c>
     </row>
@@ -3966,7 +3967,7 @@
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.919170</t>
+          <t>2021-10-05 14:21:04.237356</t>
         </is>
       </c>
     </row>
@@ -3996,7 +3997,7 @@
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.919172</t>
+          <t>2021-10-05 14:21:04.237359</t>
         </is>
       </c>
     </row>
@@ -4026,7 +4027,7 @@
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.919175</t>
+          <t>2021-10-05 14:21:04.237362</t>
         </is>
       </c>
     </row>
@@ -4056,7 +4057,7 @@
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.919177</t>
+          <t>2021-10-05 14:21:04.237364</t>
         </is>
       </c>
     </row>
@@ -4086,7 +4087,7 @@
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.919179</t>
+          <t>2021-10-05 14:21:04.237367</t>
         </is>
       </c>
     </row>
@@ -4116,7 +4117,7 @@
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.919182</t>
+          <t>2021-10-05 14:21:04.237370</t>
         </is>
       </c>
     </row>
@@ -4146,7 +4147,7 @@
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.919184</t>
+          <t>2021-10-05 14:21:04.237372</t>
         </is>
       </c>
     </row>
@@ -4176,7 +4177,7 @@
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.919187</t>
+          <t>2021-10-05 14:21:04.237375</t>
         </is>
       </c>
     </row>
@@ -4206,7 +4207,7 @@
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.919189</t>
+          <t>2021-10-05 14:21:04.237378</t>
         </is>
       </c>
     </row>
@@ -4236,7 +4237,7 @@
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.919192</t>
+          <t>2021-10-05 14:21:04.237380</t>
         </is>
       </c>
     </row>
@@ -4266,7 +4267,7 @@
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.919194</t>
+          <t>2021-10-05 14:21:04.237383</t>
         </is>
       </c>
     </row>
@@ -4296,7 +4297,7 @@
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.919197</t>
+          <t>2021-10-05 14:21:04.237386</t>
         </is>
       </c>
     </row>
@@ -4326,7 +4327,7 @@
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.919201</t>
+          <t>2021-10-05 14:21:04.237390</t>
         </is>
       </c>
     </row>
@@ -4356,7 +4357,7 @@
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.919204</t>
+          <t>2021-10-05 14:21:04.237394</t>
         </is>
       </c>
     </row>
@@ -4386,7 +4387,7 @@
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.919207</t>
+          <t>2021-10-05 14:21:04.237397</t>
         </is>
       </c>
     </row>
@@ -4416,7 +4417,7 @@
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.919209</t>
+          <t>2021-10-05 14:21:04.237399</t>
         </is>
       </c>
     </row>
@@ -4446,7 +4447,7 @@
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.919212</t>
+          <t>2021-10-05 14:21:04.237402</t>
         </is>
       </c>
     </row>
@@ -4476,7 +4477,7 @@
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.919214</t>
+          <t>2021-10-05 14:21:04.237405</t>
         </is>
       </c>
     </row>
@@ -4506,7 +4507,7 @@
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.919217</t>
+          <t>2021-10-05 14:21:04.237408</t>
         </is>
       </c>
     </row>
@@ -4536,7 +4537,7 @@
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.919219</t>
+          <t>2021-10-05 14:21:04.237411</t>
         </is>
       </c>
     </row>
@@ -4566,7 +4567,7 @@
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.919221</t>
+          <t>2021-10-05 14:21:04.237413</t>
         </is>
       </c>
     </row>
@@ -4596,7 +4597,7 @@
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.919224</t>
+          <t>2021-10-05 14:21:04.237416</t>
         </is>
       </c>
     </row>
@@ -4626,7 +4627,7 @@
       </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.919226</t>
+          <t>2021-10-05 14:21:04.237419</t>
         </is>
       </c>
     </row>
@@ -4656,7 +4657,7 @@
       </c>
       <c r="F141" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.919229</t>
+          <t>2021-10-05 14:21:04.237421</t>
         </is>
       </c>
     </row>
@@ -4686,7 +4687,7 @@
       </c>
       <c r="F142" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.919231</t>
+          <t>2021-10-05 14:21:04.237424</t>
         </is>
       </c>
     </row>
@@ -4716,7 +4717,7 @@
       </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.919234</t>
+          <t>2021-10-05 14:21:04.237426</t>
         </is>
       </c>
     </row>
@@ -4746,7 +4747,7 @@
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.919236</t>
+          <t>2021-10-05 14:21:04.237429</t>
         </is>
       </c>
     </row>
@@ -4776,7 +4777,7 @@
       </c>
       <c r="F145" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.919239</t>
+          <t>2021-10-05 14:21:04.237432</t>
         </is>
       </c>
     </row>
@@ -4806,7 +4807,7 @@
       </c>
       <c r="F146" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.919241</t>
+          <t>2021-10-05 14:21:04.237434</t>
         </is>
       </c>
     </row>
@@ -4836,7 +4837,7 @@
       </c>
       <c r="F147" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.919244</t>
+          <t>2021-10-05 14:21:04.237437</t>
         </is>
       </c>
     </row>
@@ -4866,7 +4867,7 @@
       </c>
       <c r="F148" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.919246</t>
+          <t>2021-10-05 14:21:04.237440</t>
         </is>
       </c>
     </row>
@@ -4896,7 +4897,7 @@
       </c>
       <c r="F149" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.919249</t>
+          <t>2021-10-05 14:21:04.237442</t>
         </is>
       </c>
     </row>
@@ -4926,7 +4927,7 @@
       </c>
       <c r="F150" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.919252</t>
+          <t>2021-10-05 14:21:04.237445</t>
         </is>
       </c>
     </row>
@@ -4956,7 +4957,7 @@
       </c>
       <c r="F151" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.919254</t>
+          <t>2021-10-05 14:21:04.237448</t>
         </is>
       </c>
     </row>
@@ -4986,7 +4987,7 @@
       </c>
       <c r="F152" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.919257</t>
+          <t>2021-10-05 14:21:04.237451</t>
         </is>
       </c>
     </row>
@@ -5016,7 +5017,7 @@
       </c>
       <c r="F153" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.919259</t>
+          <t>2021-10-05 14:21:04.237454</t>
         </is>
       </c>
     </row>
@@ -5046,7 +5047,7 @@
       </c>
       <c r="F154" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.919262</t>
+          <t>2021-10-05 14:21:04.237456</t>
         </is>
       </c>
     </row>
@@ -5076,7 +5077,7 @@
       </c>
       <c r="F155" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.919265</t>
+          <t>2021-10-05 14:21:04.237459</t>
         </is>
       </c>
     </row>
@@ -5106,7 +5107,7 @@
       </c>
       <c r="F156" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.919267</t>
+          <t>2021-10-05 14:21:04.237462</t>
         </is>
       </c>
     </row>
@@ -5136,7 +5137,7 @@
       </c>
       <c r="F157" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.919270</t>
+          <t>2021-10-05 14:21:04.237464</t>
         </is>
       </c>
     </row>
@@ -5166,7 +5167,7 @@
       </c>
       <c r="F158" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.919273</t>
+          <t>2021-10-05 14:21:04.237467</t>
         </is>
       </c>
     </row>
@@ -5196,7 +5197,7 @@
       </c>
       <c r="F159" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.919275</t>
+          <t>2021-10-05 14:21:04.237469</t>
         </is>
       </c>
     </row>
@@ -5226,7 +5227,7 @@
       </c>
       <c r="F160" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.919278</t>
+          <t>2021-10-05 14:21:04.237472</t>
         </is>
       </c>
     </row>
@@ -5256,7 +5257,7 @@
       </c>
       <c r="F161" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.919280</t>
+          <t>2021-10-05 14:21:04.237475</t>
         </is>
       </c>
     </row>
@@ -5286,7 +5287,7 @@
       </c>
       <c r="F162" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.919283</t>
+          <t>2021-10-05 14:21:04.237478</t>
         </is>
       </c>
     </row>
@@ -5316,7 +5317,7 @@
       </c>
       <c r="F163" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.919285</t>
+          <t>2021-10-05 14:21:04.237481</t>
         </is>
       </c>
     </row>
@@ -5346,7 +5347,7 @@
       </c>
       <c r="F164" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.919288</t>
+          <t>2021-10-05 14:21:04.237484</t>
         </is>
       </c>
     </row>
@@ -5376,7 +5377,7 @@
       </c>
       <c r="F165" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.919291</t>
+          <t>2021-10-05 14:21:04.237487</t>
         </is>
       </c>
     </row>
@@ -5406,7 +5407,7 @@
       </c>
       <c r="F166" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.919293</t>
+          <t>2021-10-05 14:21:04.237489</t>
         </is>
       </c>
     </row>
@@ -5436,7 +5437,7 @@
       </c>
       <c r="F167" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.919295</t>
+          <t>2021-10-05 14:21:04.237492</t>
         </is>
       </c>
     </row>
@@ -5466,7 +5467,7 @@
       </c>
       <c r="F168" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.919298</t>
+          <t>2021-10-05 14:21:04.237495</t>
         </is>
       </c>
     </row>
@@ -5496,7 +5497,7 @@
       </c>
       <c r="F169" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.919301</t>
+          <t>2021-10-05 14:21:04.237498</t>
         </is>
       </c>
     </row>
@@ -5526,7 +5527,7 @@
       </c>
       <c r="F170" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.919303</t>
+          <t>2021-10-05 14:21:04.237500</t>
         </is>
       </c>
     </row>
@@ -5556,7 +5557,7 @@
       </c>
       <c r="F171" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.919306</t>
+          <t>2021-10-05 14:21:04.237503</t>
         </is>
       </c>
     </row>
@@ -5586,7 +5587,7 @@
       </c>
       <c r="F172" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.919308</t>
+          <t>2021-10-05 14:21:04.237506</t>
         </is>
       </c>
     </row>
@@ -5616,7 +5617,7 @@
       </c>
       <c r="F173" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.919311</t>
+          <t>2021-10-05 14:21:04.237508</t>
         </is>
       </c>
     </row>
@@ -5646,7 +5647,7 @@
       </c>
       <c r="F174" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.919315</t>
+          <t>2021-10-05 14:21:04.237513</t>
         </is>
       </c>
     </row>
@@ -5676,7 +5677,7 @@
       </c>
       <c r="F175" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.919318</t>
+          <t>2021-10-05 14:21:04.237516</t>
         </is>
       </c>
     </row>
@@ -5706,7 +5707,7 @@
       </c>
       <c r="F176" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.919320</t>
+          <t>2021-10-05 14:21:04.237519</t>
         </is>
       </c>
     </row>
@@ -5736,7 +5737,7 @@
       </c>
       <c r="F177" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.919323</t>
+          <t>2021-10-05 14:21:04.237521</t>
         </is>
       </c>
     </row>
@@ -5766,7 +5767,7 @@
       </c>
       <c r="F178" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.919326</t>
+          <t>2021-10-05 14:21:04.237524</t>
         </is>
       </c>
     </row>
@@ -5796,7 +5797,7 @@
       </c>
       <c r="F179" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.919328</t>
+          <t>2021-10-05 14:21:04.237527</t>
         </is>
       </c>
     </row>
@@ -5826,7 +5827,7 @@
       </c>
       <c r="F180" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.919333</t>
+          <t>2021-10-05 14:21:04.237530</t>
         </is>
       </c>
     </row>
@@ -5856,7 +5857,7 @@
       </c>
       <c r="F181" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.919338</t>
+          <t>2021-10-05 14:21:04.237532</t>
         </is>
       </c>
     </row>
@@ -5886,7 +5887,7 @@
       </c>
       <c r="F182" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.919342</t>
+          <t>2021-10-05 14:21:04.237535</t>
         </is>
       </c>
     </row>
@@ -5916,7 +5917,7 @@
       </c>
       <c r="F183" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.919346</t>
+          <t>2021-10-05 14:21:04.237538</t>
         </is>
       </c>
     </row>
@@ -5946,7 +5947,7 @@
       </c>
       <c r="F184" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.919351</t>
+          <t>2021-10-05 14:21:04.237541</t>
         </is>
       </c>
     </row>
@@ -5976,7 +5977,7 @@
       </c>
       <c r="F185" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.919355</t>
+          <t>2021-10-05 14:21:04.237543</t>
         </is>
       </c>
     </row>
@@ -6006,7 +6007,7 @@
       </c>
       <c r="F186" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.919358</t>
+          <t>2021-10-05 14:21:04.237546</t>
         </is>
       </c>
     </row>
@@ -6036,7 +6037,7 @@
       </c>
       <c r="F187" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.919361</t>
+          <t>2021-10-05 14:21:04.237549</t>
         </is>
       </c>
     </row>
@@ -6066,7 +6067,7 @@
       </c>
       <c r="F188" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.919364</t>
+          <t>2021-10-05 14:21:04.237551</t>
         </is>
       </c>
     </row>
@@ -6096,7 +6097,7 @@
       </c>
       <c r="F189" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.919366</t>
+          <t>2021-10-05 14:21:04.237554</t>
         </is>
       </c>
     </row>
@@ -6126,7 +6127,7 @@
       </c>
       <c r="F190" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.919369</t>
+          <t>2021-10-05 14:21:04.237557</t>
         </is>
       </c>
     </row>
@@ -6156,7 +6157,7 @@
       </c>
       <c r="F191" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.919372</t>
+          <t>2021-10-05 14:21:04.237560</t>
         </is>
       </c>
     </row>
@@ -6186,7 +6187,7 @@
       </c>
       <c r="F192" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.919374</t>
+          <t>2021-10-05 14:21:04.237562</t>
         </is>
       </c>
     </row>
@@ -6216,7 +6217,7 @@
       </c>
       <c r="F193" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.919377</t>
+          <t>2021-10-05 14:21:04.237565</t>
         </is>
       </c>
     </row>
@@ -6246,7 +6247,7 @@
       </c>
       <c r="F194" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.919380</t>
+          <t>2021-10-05 14:21:04.237568</t>
         </is>
       </c>
     </row>
@@ -6276,7 +6277,7 @@
       </c>
       <c r="F195" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.919382</t>
+          <t>2021-10-05 14:21:04.237571</t>
         </is>
       </c>
     </row>
@@ -6306,7 +6307,7 @@
       </c>
       <c r="F196" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.919385</t>
+          <t>2021-10-05 14:21:04.237574</t>
         </is>
       </c>
     </row>
@@ -6336,7 +6337,7 @@
       </c>
       <c r="F197" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.919388</t>
+          <t>2021-10-05 14:21:04.237577</t>
         </is>
       </c>
     </row>
@@ -6366,7 +6367,7 @@
       </c>
       <c r="F198" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.919391</t>
+          <t>2021-10-05 14:21:04.237579</t>
         </is>
       </c>
     </row>
@@ -6396,7 +6397,7 @@
       </c>
       <c r="F199" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.919393</t>
+          <t>2021-10-05 14:21:04.237582</t>
         </is>
       </c>
     </row>
@@ -6426,7 +6427,7 @@
       </c>
       <c r="F200" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.919396</t>
+          <t>2021-10-05 14:21:04.237585</t>
         </is>
       </c>
     </row>
@@ -6456,7 +6457,7 @@
       </c>
       <c r="F201" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.919399</t>
+          <t>2021-10-05 14:21:04.237588</t>
         </is>
       </c>
     </row>
@@ -6486,7 +6487,7 @@
       </c>
       <c r="F202" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.919402</t>
+          <t>2021-10-05 14:21:04.237591</t>
         </is>
       </c>
     </row>
@@ -6516,7 +6517,7 @@
       </c>
       <c r="F203" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.919404</t>
+          <t>2021-10-05 14:21:04.237594</t>
         </is>
       </c>
     </row>
@@ -6546,7 +6547,7 @@
       </c>
       <c r="F204" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.919407</t>
+          <t>2021-10-05 14:21:04.237596</t>
         </is>
       </c>
     </row>
@@ -6576,7 +6577,7 @@
       </c>
       <c r="F205" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.919410</t>
+          <t>2021-10-05 14:21:04.237599</t>
         </is>
       </c>
     </row>
@@ -6606,7 +6607,7 @@
       </c>
       <c r="F206" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.919413</t>
+          <t>2021-10-05 14:21:04.237602</t>
         </is>
       </c>
     </row>
@@ -6636,7 +6637,7 @@
       </c>
       <c r="F207" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.919415</t>
+          <t>2021-10-05 14:21:04.237605</t>
         </is>
       </c>
     </row>
@@ -6666,7 +6667,7 @@
       </c>
       <c r="F208" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.919418</t>
+          <t>2021-10-05 14:21:04.237607</t>
         </is>
       </c>
     </row>
@@ -6696,7 +6697,7 @@
       </c>
       <c r="F209" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.919420</t>
+          <t>2021-10-05 14:21:04.237610</t>
         </is>
       </c>
     </row>
@@ -6726,7 +6727,7 @@
       </c>
       <c r="F210" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.919423</t>
+          <t>2021-10-05 14:21:04.237612</t>
         </is>
       </c>
     </row>
@@ -6756,7 +6757,7 @@
       </c>
       <c r="F211" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.919426</t>
+          <t>2021-10-05 14:21:04.237615</t>
         </is>
       </c>
     </row>
@@ -6786,7 +6787,7 @@
       </c>
       <c r="F212" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.919428</t>
+          <t>2021-10-05 14:21:04.237618</t>
         </is>
       </c>
     </row>
@@ -6816,7 +6817,7 @@
       </c>
       <c r="F213" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.919431</t>
+          <t>2021-10-05 14:21:04.237620</t>
         </is>
       </c>
     </row>
@@ -6846,7 +6847,7 @@
       </c>
       <c r="F214" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.919433</t>
+          <t>2021-10-05 14:21:04.237623</t>
         </is>
       </c>
     </row>
@@ -6876,7 +6877,7 @@
       </c>
       <c r="F215" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.919438</t>
+          <t>2021-10-05 14:21:04.237626</t>
         </is>
       </c>
     </row>
@@ -6906,7 +6907,7 @@
       </c>
       <c r="F216" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.919441</t>
+          <t>2021-10-05 14:21:04.237629</t>
         </is>
       </c>
     </row>
@@ -6936,7 +6937,7 @@
       </c>
       <c r="F217" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.919443</t>
+          <t>2021-10-05 14:21:04.237631</t>
         </is>
       </c>
     </row>
@@ -6966,7 +6967,7 @@
       </c>
       <c r="F218" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.919446</t>
+          <t>2021-10-05 14:21:04.237634</t>
         </is>
       </c>
     </row>
@@ -6996,7 +6997,7 @@
       </c>
       <c r="F219" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.919449</t>
+          <t>2021-10-05 14:21:04.237636</t>
         </is>
       </c>
     </row>
@@ -7026,7 +7027,7 @@
       </c>
       <c r="F220" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.919451</t>
+          <t>2021-10-05 14:21:04.237639</t>
         </is>
       </c>
     </row>
@@ -7056,7 +7057,7 @@
       </c>
       <c r="F221" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.919454</t>
+          <t>2021-10-05 14:21:04.237642</t>
         </is>
       </c>
     </row>
@@ -7086,7 +7087,7 @@
       </c>
       <c r="F222" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.919457</t>
+          <t>2021-10-05 14:21:04.237645</t>
         </is>
       </c>
     </row>
@@ -7116,7 +7117,7 @@
       </c>
       <c r="F223" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.919459</t>
+          <t>2021-10-05 14:21:04.237647</t>
         </is>
       </c>
     </row>
@@ -7146,7 +7147,7 @@
       </c>
       <c r="F224" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.919462</t>
+          <t>2021-10-05 14:21:04.237651</t>
         </is>
       </c>
     </row>
@@ -7176,7 +7177,7 @@
       </c>
       <c r="F225" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.919465</t>
+          <t>2021-10-05 14:21:04.237653</t>
         </is>
       </c>
     </row>
@@ -7206,7 +7207,7 @@
       </c>
       <c r="F226" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.919467</t>
+          <t>2021-10-05 14:21:04.237656</t>
         </is>
       </c>
     </row>
@@ -7236,7 +7237,7 @@
       </c>
       <c r="F227" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.919470</t>
+          <t>2021-10-05 14:21:04.237659</t>
         </is>
       </c>
     </row>
@@ -7266,7 +7267,7 @@
       </c>
       <c r="F228" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.919472</t>
+          <t>2021-10-05 14:21:04.237661</t>
         </is>
       </c>
     </row>
@@ -7296,7 +7297,7 @@
       </c>
       <c r="F229" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.919475</t>
+          <t>2021-10-05 14:21:04.237664</t>
         </is>
       </c>
     </row>
@@ -7326,7 +7327,7 @@
       </c>
       <c r="F230" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.919478</t>
+          <t>2021-10-05 14:21:04.237667</t>
         </is>
       </c>
     </row>
@@ -7356,7 +7357,7 @@
       </c>
       <c r="F231" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.919480</t>
+          <t>2021-10-05 14:21:04.237669</t>
         </is>
       </c>
     </row>
@@ -7386,7 +7387,7 @@
       </c>
       <c r="F232" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.919483</t>
+          <t>2021-10-05 14:21:04.237672</t>
         </is>
       </c>
     </row>
@@ -7416,7 +7417,7 @@
       </c>
       <c r="F233" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.919486</t>
+          <t>2021-10-05 14:21:04.237675</t>
         </is>
       </c>
     </row>
@@ -7446,7 +7447,7 @@
       </c>
       <c r="F234" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.919490</t>
+          <t>2021-10-05 14:21:04.237679</t>
         </is>
       </c>
     </row>
@@ -7476,7 +7477,7 @@
       </c>
       <c r="F235" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.919494</t>
+          <t>2021-10-05 14:21:04.237682</t>
         </is>
       </c>
     </row>
@@ -7506,7 +7507,7 @@
       </c>
       <c r="F236" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.919496</t>
+          <t>2021-10-05 14:21:04.237685</t>
         </is>
       </c>
     </row>
@@ -7536,7 +7537,7 @@
       </c>
       <c r="F237" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.919499</t>
+          <t>2021-10-05 14:21:04.237688</t>
         </is>
       </c>
     </row>
@@ -7566,7 +7567,7 @@
       </c>
       <c r="F238" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.919502</t>
+          <t>2021-10-05 14:21:04.237690</t>
         </is>
       </c>
     </row>
@@ -7596,7 +7597,7 @@
       </c>
       <c r="F239" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.919505</t>
+          <t>2021-10-05 14:21:04.237693</t>
         </is>
       </c>
     </row>
@@ -7626,7 +7627,7 @@
       </c>
       <c r="F240" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.919507</t>
+          <t>2021-10-05 14:21:04.237696</t>
         </is>
       </c>
     </row>
@@ -7656,7 +7657,7 @@
       </c>
       <c r="F241" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.919510</t>
+          <t>2021-10-05 14:21:04.237698</t>
         </is>
       </c>
     </row>
@@ -7686,7 +7687,7 @@
       </c>
       <c r="F242" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.919513</t>
+          <t>2021-10-05 14:21:04.237701</t>
         </is>
       </c>
     </row>
@@ -7716,7 +7717,7 @@
       </c>
       <c r="F243" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.919515</t>
+          <t>2021-10-05 14:21:04.237704</t>
         </is>
       </c>
     </row>
@@ -7746,7 +7747,7 @@
       </c>
       <c r="F244" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.919518</t>
+          <t>2021-10-05 14:21:04.237707</t>
         </is>
       </c>
     </row>
@@ -7776,7 +7777,7 @@
       </c>
       <c r="F245" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.919520</t>
+          <t>2021-10-05 14:21:04.237709</t>
         </is>
       </c>
     </row>
@@ -7806,7 +7807,7 @@
       </c>
       <c r="F246" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.919523</t>
+          <t>2021-10-05 14:21:04.237712</t>
         </is>
       </c>
     </row>
@@ -7836,7 +7837,7 @@
       </c>
       <c r="F247" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.919526</t>
+          <t>2021-10-05 14:21:04.237715</t>
         </is>
       </c>
     </row>
@@ -7866,7 +7867,7 @@
       </c>
       <c r="F248" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.919529</t>
+          <t>2021-10-05 14:21:04.237718</t>
         </is>
       </c>
     </row>
@@ -7896,7 +7897,7 @@
       </c>
       <c r="F249" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.919531</t>
+          <t>2021-10-05 14:21:04.237725</t>
         </is>
       </c>
     </row>
@@ -7926,7 +7927,7 @@
       </c>
       <c r="F250" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.919534</t>
+          <t>2021-10-05 14:21:04.237728</t>
         </is>
       </c>
     </row>
@@ -7956,7 +7957,7 @@
       </c>
       <c r="F251" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.919537</t>
+          <t>2021-10-05 14:21:04.237731</t>
         </is>
       </c>
     </row>
@@ -7986,7 +7987,7 @@
       </c>
       <c r="F252" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.919539</t>
+          <t>2021-10-05 14:21:04.237734</t>
         </is>
       </c>
     </row>
@@ -8016,7 +8017,7 @@
       </c>
       <c r="F253" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.919542</t>
+          <t>2021-10-05 14:21:04.237737</t>
         </is>
       </c>
     </row>
@@ -8046,7 +8047,7 @@
       </c>
       <c r="F254" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.919544</t>
+          <t>2021-10-05 14:21:04.237739</t>
         </is>
       </c>
     </row>
@@ -8076,7 +8077,7 @@
       </c>
       <c r="F255" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.919547</t>
+          <t>2021-10-05 14:21:04.237742</t>
         </is>
       </c>
     </row>
@@ -8106,7 +8107,7 @@
       </c>
       <c r="F256" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.919550</t>
+          <t>2021-10-05 14:21:04.237744</t>
         </is>
       </c>
     </row>
@@ -8136,7 +8137,7 @@
       </c>
       <c r="F257" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.919552</t>
+          <t>2021-10-05 14:21:04.237747</t>
         </is>
       </c>
     </row>
@@ -8166,7 +8167,7 @@
       </c>
       <c r="F258" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.919555</t>
+          <t>2021-10-05 14:21:04.237750</t>
         </is>
       </c>
     </row>
@@ -8196,7 +8197,7 @@
       </c>
       <c r="F259" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.919558</t>
+          <t>2021-10-05 14:21:04.237753</t>
         </is>
       </c>
     </row>
@@ -8226,7 +8227,7 @@
       </c>
       <c r="F260" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.919560</t>
+          <t>2021-10-05 14:21:04.237755</t>
         </is>
       </c>
     </row>
@@ -8256,7 +8257,7 @@
       </c>
       <c r="F261" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.919563</t>
+          <t>2021-10-05 14:21:04.237758</t>
         </is>
       </c>
     </row>
@@ -8286,7 +8287,7 @@
       </c>
       <c r="F262" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.919565</t>
+          <t>2021-10-05 14:21:04.237760</t>
         </is>
       </c>
     </row>
@@ -8316,7 +8317,7 @@
       </c>
       <c r="F263" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.919568</t>
+          <t>2021-10-05 14:21:04.237763</t>
         </is>
       </c>
     </row>
@@ -8346,7 +8347,7 @@
       </c>
       <c r="F264" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.919570</t>
+          <t>2021-10-05 14:21:04.237766</t>
         </is>
       </c>
     </row>
@@ -8376,7 +8377,7 @@
       </c>
       <c r="F265" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.919573</t>
+          <t>2021-10-05 14:21:04.237769</t>
         </is>
       </c>
     </row>
@@ -8406,7 +8407,7 @@
       </c>
       <c r="F266" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.919576</t>
+          <t>2021-10-05 14:21:04.237771</t>
         </is>
       </c>
     </row>
@@ -8436,7 +8437,7 @@
       </c>
       <c r="F267" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.919578</t>
+          <t>2021-10-05 14:21:04.237774</t>
         </is>
       </c>
     </row>
@@ -8466,7 +8467,7 @@
       </c>
       <c r="F268" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.919581</t>
+          <t>2021-10-05 14:21:04.237777</t>
         </is>
       </c>
     </row>
@@ -8496,7 +8497,7 @@
       </c>
       <c r="F269" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.919583</t>
+          <t>2021-10-05 14:21:04.237780</t>
         </is>
       </c>
     </row>
@@ -8526,7 +8527,7 @@
       </c>
       <c r="F270" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.919586</t>
+          <t>2021-10-05 14:21:04.237783</t>
         </is>
       </c>
     </row>
@@ -8556,7 +8557,7 @@
       </c>
       <c r="F271" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.919589</t>
+          <t>2021-10-05 14:21:04.237786</t>
         </is>
       </c>
     </row>
@@ -8586,7 +8587,7 @@
       </c>
       <c r="F272" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.919592</t>
+          <t>2021-10-05 14:21:04.237788</t>
         </is>
       </c>
     </row>
@@ -8616,7 +8617,7 @@
       </c>
       <c r="F273" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.919594</t>
+          <t>2021-10-05 14:21:04.237791</t>
         </is>
       </c>
     </row>
@@ -8646,7 +8647,7 @@
       </c>
       <c r="F274" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.919597</t>
+          <t>2021-10-05 14:21:04.237794</t>
         </is>
       </c>
     </row>
@@ -8676,7 +8677,7 @@
       </c>
       <c r="F275" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.919599</t>
+          <t>2021-10-05 14:21:04.237796</t>
         </is>
       </c>
     </row>
@@ -8706,7 +8707,7 @@
       </c>
       <c r="F276" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.919601</t>
+          <t>2021-10-05 14:21:04.237799</t>
         </is>
       </c>
     </row>
@@ -8736,7 +8737,7 @@
       </c>
       <c r="F277" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.919604</t>
+          <t>2021-10-05 14:21:04.237802</t>
         </is>
       </c>
     </row>
@@ -8766,7 +8767,7 @@
       </c>
       <c r="F278" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.919606</t>
+          <t>2021-10-05 14:21:04.237804</t>
         </is>
       </c>
     </row>
@@ -8796,7 +8797,7 @@
       </c>
       <c r="F279" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.919609</t>
+          <t>2021-10-05 14:21:04.237807</t>
         </is>
       </c>
     </row>
@@ -8826,7 +8827,7 @@
       </c>
       <c r="F280" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.919611</t>
+          <t>2021-10-05 14:21:04.237810</t>
         </is>
       </c>
     </row>
@@ -8856,7 +8857,7 @@
       </c>
       <c r="F281" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.919614</t>
+          <t>2021-10-05 14:21:04.237813</t>
         </is>
       </c>
     </row>
@@ -8886,7 +8887,7 @@
       </c>
       <c r="F282" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.919616</t>
+          <t>2021-10-05 14:21:04.237816</t>
         </is>
       </c>
     </row>
@@ -8916,7 +8917,7 @@
       </c>
       <c r="F283" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.919619</t>
+          <t>2021-10-05 14:21:04.237819</t>
         </is>
       </c>
     </row>
@@ -8946,7 +8947,7 @@
       </c>
       <c r="F284" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.919622</t>
+          <t>2021-10-05 14:21:04.237823</t>
         </is>
       </c>
     </row>
@@ -8976,7 +8977,7 @@
       </c>
       <c r="F285" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.919624</t>
+          <t>2021-10-05 14:21:04.237825</t>
         </is>
       </c>
     </row>
@@ -9006,7 +9007,7 @@
       </c>
       <c r="F286" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.919627</t>
+          <t>2021-10-05 14:21:04.237828</t>
         </is>
       </c>
     </row>
@@ -9036,7 +9037,7 @@
       </c>
       <c r="F287" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.919630</t>
+          <t>2021-10-05 14:21:04.237831</t>
         </is>
       </c>
     </row>
@@ -9066,7 +9067,7 @@
       </c>
       <c r="F288" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.919632</t>
+          <t>2021-10-05 14:21:04.237833</t>
         </is>
       </c>
     </row>
@@ -9096,7 +9097,7 @@
       </c>
       <c r="F289" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.919635</t>
+          <t>2021-10-05 14:21:04.237836</t>
         </is>
       </c>
     </row>
@@ -9126,7 +9127,7 @@
       </c>
       <c r="F290" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.919637</t>
+          <t>2021-10-05 14:21:04.237839</t>
         </is>
       </c>
     </row>
@@ -9156,7 +9157,7 @@
       </c>
       <c r="F291" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.919640</t>
+          <t>2021-10-05 14:21:04.237842</t>
         </is>
       </c>
     </row>
@@ -9186,7 +9187,7 @@
       </c>
       <c r="F292" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.919642</t>
+          <t>2021-10-05 14:21:04.237845</t>
         </is>
       </c>
     </row>
@@ -9216,7 +9217,7 @@
       </c>
       <c r="F293" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.919645</t>
+          <t>2021-10-05 14:21:04.237847</t>
         </is>
       </c>
     </row>
@@ -9246,7 +9247,7 @@
       </c>
       <c r="F294" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.919648</t>
+          <t>2021-10-05 14:21:04.237850</t>
         </is>
       </c>
     </row>
@@ -9276,7 +9277,7 @@
       </c>
       <c r="F295" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.919650</t>
+          <t>2021-10-05 14:21:04.237853</t>
         </is>
       </c>
     </row>
@@ -9306,7 +9307,7 @@
       </c>
       <c r="F296" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.919653</t>
+          <t>2021-10-05 14:21:04.237855</t>
         </is>
       </c>
     </row>
@@ -9336,7 +9337,7 @@
       </c>
       <c r="F297" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.919655</t>
+          <t>2021-10-05 14:21:04.237858</t>
         </is>
       </c>
     </row>
@@ -9366,7 +9367,7 @@
       </c>
       <c r="F298" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.919658</t>
+          <t>2021-10-05 14:21:04.237861</t>
         </is>
       </c>
     </row>
@@ -9396,7 +9397,7 @@
       </c>
       <c r="F299" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.919661</t>
+          <t>2021-10-05 14:21:04.237863</t>
         </is>
       </c>
     </row>
@@ -9426,7 +9427,7 @@
       </c>
       <c r="F300" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.919663</t>
+          <t>2021-10-05 14:21:04.237866</t>
         </is>
       </c>
     </row>
@@ -9456,7 +9457,7 @@
       </c>
       <c r="F301" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.919666</t>
+          <t>2021-10-05 14:21:04.237869</t>
         </is>
       </c>
     </row>
@@ -9486,7 +9487,7 @@
       </c>
       <c r="F302" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.919668</t>
+          <t>2021-10-05 14:21:04.237871</t>
         </is>
       </c>
     </row>
@@ -9516,7 +9517,7 @@
       </c>
       <c r="F303" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.919671</t>
+          <t>2021-10-05 14:21:04.237874</t>
         </is>
       </c>
     </row>
@@ -9546,7 +9547,7 @@
       </c>
       <c r="F304" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.919673</t>
+          <t>2021-10-05 14:21:04.237877</t>
         </is>
       </c>
     </row>
@@ -9576,7 +9577,7 @@
       </c>
       <c r="F305" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.919676</t>
+          <t>2021-10-05 14:21:04.237880</t>
         </is>
       </c>
     </row>
@@ -9606,7 +9607,7 @@
       </c>
       <c r="F306" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.919678</t>
+          <t>2021-10-05 14:21:04.237883</t>
         </is>
       </c>
     </row>
@@ -9636,7 +9637,7 @@
       </c>
       <c r="F307" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.919681</t>
+          <t>2021-10-05 14:21:04.237885</t>
         </is>
       </c>
     </row>
@@ -9666,7 +9667,7 @@
       </c>
       <c r="F308" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.919683</t>
+          <t>2021-10-05 14:21:04.237888</t>
         </is>
       </c>
     </row>
@@ -9696,7 +9697,7 @@
       </c>
       <c r="F309" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.919686</t>
+          <t>2021-10-05 14:21:04.237891</t>
         </is>
       </c>
     </row>
@@ -9726,7 +9727,7 @@
       </c>
       <c r="F310" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.919690</t>
+          <t>2021-10-05 14:21:04.237895</t>
         </is>
       </c>
     </row>
@@ -9756,7 +9757,7 @@
       </c>
       <c r="F311" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.919693</t>
+          <t>2021-10-05 14:21:04.237899</t>
         </is>
       </c>
     </row>
@@ -9786,7 +9787,7 @@
       </c>
       <c r="F312" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.919696</t>
+          <t>2021-10-05 14:21:04.237901</t>
         </is>
       </c>
     </row>
@@ -9816,7 +9817,7 @@
       </c>
       <c r="F313" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.919698</t>
+          <t>2021-10-05 14:21:04.237904</t>
         </is>
       </c>
     </row>
@@ -9846,7 +9847,7 @@
       </c>
       <c r="F314" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.919701</t>
+          <t>2021-10-05 14:21:04.237907</t>
         </is>
       </c>
     </row>
@@ -9876,7 +9877,7 @@
       </c>
       <c r="F315" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.919703</t>
+          <t>2021-10-05 14:21:04.237910</t>
         </is>
       </c>
     </row>
@@ -9906,7 +9907,7 @@
       </c>
       <c r="F316" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.919706</t>
+          <t>2021-10-05 14:21:04.237912</t>
         </is>
       </c>
     </row>
@@ -9936,7 +9937,7 @@
       </c>
       <c r="F317" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.919709</t>
+          <t>2021-10-05 14:21:04.237915</t>
         </is>
       </c>
     </row>
@@ -9966,7 +9967,7 @@
       </c>
       <c r="F318" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.919711</t>
+          <t>2021-10-05 14:21:04.237918</t>
         </is>
       </c>
     </row>
@@ -9996,7 +9997,7 @@
       </c>
       <c r="F319" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.919714</t>
+          <t>2021-10-05 14:21:04.237920</t>
         </is>
       </c>
     </row>
@@ -10026,7 +10027,7 @@
       </c>
       <c r="F320" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.919716</t>
+          <t>2021-10-05 14:21:04.237923</t>
         </is>
       </c>
     </row>
@@ -10056,7 +10057,7 @@
       </c>
       <c r="F321" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.919718</t>
+          <t>2021-10-05 14:21:04.237926</t>
         </is>
       </c>
     </row>
@@ -10086,7 +10087,7 @@
       </c>
       <c r="F322" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.919721</t>
+          <t>2021-10-05 14:21:04.237929</t>
         </is>
       </c>
     </row>
@@ -10116,7 +10117,7 @@
       </c>
       <c r="F323" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.919724</t>
+          <t>2021-10-05 14:21:04.237932</t>
         </is>
       </c>
     </row>
@@ -10146,7 +10147,7 @@
       </c>
       <c r="F324" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.919727</t>
+          <t>2021-10-05 14:21:04.237935</t>
         </is>
       </c>
     </row>
@@ -10176,7 +10177,7 @@
       </c>
       <c r="F325" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.919729</t>
+          <t>2021-10-05 14:21:04.237937</t>
         </is>
       </c>
     </row>
@@ -10206,7 +10207,7 @@
       </c>
       <c r="F326" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.919732</t>
+          <t>2021-10-05 14:21:04.237940</t>
         </is>
       </c>
     </row>
@@ -10236,7 +10237,7 @@
       </c>
       <c r="F327" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.919734</t>
+          <t>2021-10-05 14:21:04.237943</t>
         </is>
       </c>
     </row>
@@ -10266,7 +10267,7 @@
       </c>
       <c r="F328" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.919737</t>
+          <t>2021-10-05 14:21:04.237945</t>
         </is>
       </c>
     </row>
@@ -10296,7 +10297,7 @@
       </c>
       <c r="F329" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.919739</t>
+          <t>2021-10-05 14:21:04.237948</t>
         </is>
       </c>
     </row>
@@ -10326,7 +10327,7 @@
       </c>
       <c r="F330" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.919742</t>
+          <t>2021-10-05 14:21:04.237951</t>
         </is>
       </c>
     </row>
@@ -10356,7 +10357,7 @@
       </c>
       <c r="F331" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.919745</t>
+          <t>2021-10-05 14:21:04.237954</t>
         </is>
       </c>
     </row>
@@ -10386,7 +10387,7 @@
       </c>
       <c r="F332" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.919747</t>
+          <t>2021-10-05 14:21:04.237956</t>
         </is>
       </c>
     </row>
@@ -10416,7 +10417,7 @@
       </c>
       <c r="F333" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.919750</t>
+          <t>2021-10-05 14:21:04.237959</t>
         </is>
       </c>
     </row>
@@ -10446,7 +10447,7 @@
       </c>
       <c r="F334" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.919752</t>
+          <t>2021-10-05 14:21:04.237962</t>
         </is>
       </c>
     </row>
@@ -10476,7 +10477,7 @@
       </c>
       <c r="F335" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.919755</t>
+          <t>2021-10-05 14:21:04.237965</t>
         </is>
       </c>
     </row>
@@ -10506,7 +10507,7 @@
       </c>
       <c r="F336" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.919757</t>
+          <t>2021-10-05 14:21:04.237968</t>
         </is>
       </c>
     </row>
@@ -10536,7 +10537,7 @@
       </c>
       <c r="F337" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.919760</t>
+          <t>2021-10-05 14:21:04.237971</t>
         </is>
       </c>
     </row>
@@ -10566,7 +10567,7 @@
       </c>
       <c r="F338" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.919762</t>
+          <t>2021-10-05 14:21:04.237973</t>
         </is>
       </c>
     </row>
@@ -10596,7 +10597,7 @@
       </c>
       <c r="F339" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.919765</t>
+          <t>2021-10-05 14:21:04.237976</t>
         </is>
       </c>
     </row>
@@ -10626,7 +10627,7 @@
       </c>
       <c r="F340" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.919767</t>
+          <t>2021-10-05 14:21:04.237979</t>
         </is>
       </c>
     </row>
@@ -10656,7 +10657,7 @@
       </c>
       <c r="F341" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.919770</t>
+          <t>2021-10-05 14:21:04.237982</t>
         </is>
       </c>
     </row>
@@ -10686,7 +10687,7 @@
       </c>
       <c r="F342" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.919772</t>
+          <t>2021-10-05 14:21:04.237984</t>
         </is>
       </c>
     </row>
@@ -10716,7 +10717,7 @@
       </c>
       <c r="F343" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.919775</t>
+          <t>2021-10-05 14:21:04.237987</t>
         </is>
       </c>
     </row>
@@ -10746,7 +10747,7 @@
       </c>
       <c r="F344" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.919777</t>
+          <t>2021-10-05 14:21:04.237989</t>
         </is>
       </c>
     </row>
@@ -10776,7 +10777,7 @@
       </c>
       <c r="F345" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.919780</t>
+          <t>2021-10-05 14:21:04.237992</t>
         </is>
       </c>
     </row>
@@ -10806,7 +10807,7 @@
       </c>
       <c r="F346" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.919782</t>
+          <t>2021-10-05 14:21:04.237995</t>
         </is>
       </c>
     </row>
@@ -10836,7 +10837,7 @@
       </c>
       <c r="F347" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.919785</t>
+          <t>2021-10-05 14:21:04.237997</t>
         </is>
       </c>
     </row>
@@ -10866,7 +10867,7 @@
       </c>
       <c r="F348" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.919787</t>
+          <t>2021-10-05 14:21:04.238000</t>
         </is>
       </c>
     </row>
@@ -10896,7 +10897,7 @@
       </c>
       <c r="F349" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.919790</t>
+          <t>2021-10-05 14:21:04.238003</t>
         </is>
       </c>
     </row>
@@ -10926,7 +10927,7 @@
       </c>
       <c r="F350" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.919792</t>
+          <t>2021-10-05 14:21:04.238005</t>
         </is>
       </c>
     </row>
@@ -10956,7 +10957,7 @@
       </c>
       <c r="F351" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.919795</t>
+          <t>2021-10-05 14:21:04.238008</t>
         </is>
       </c>
     </row>
@@ -10986,7 +10987,7 @@
       </c>
       <c r="F352" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.919798</t>
+          <t>2021-10-05 14:21:04.238011</t>
         </is>
       </c>
     </row>
@@ -11016,7 +11017,7 @@
       </c>
       <c r="F353" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.919800</t>
+          <t>2021-10-05 14:21:04.238014</t>
         </is>
       </c>
     </row>
@@ -11046,7 +11047,7 @@
       </c>
       <c r="F354" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.919804</t>
+          <t>2021-10-05 14:21:04.238018</t>
         </is>
       </c>
     </row>
@@ -11076,7 +11077,7 @@
       </c>
       <c r="F355" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.919807</t>
+          <t>2021-10-05 14:21:04.238020</t>
         </is>
       </c>
     </row>
@@ -11106,7 +11107,7 @@
       </c>
       <c r="F356" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.919810</t>
+          <t>2021-10-05 14:21:04.238023</t>
         </is>
       </c>
     </row>
@@ -11136,7 +11137,7 @@
       </c>
       <c r="F357" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.919812</t>
+          <t>2021-10-05 14:21:04.238026</t>
         </is>
       </c>
     </row>
@@ -11166,7 +11167,7 @@
       </c>
       <c r="F358" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.919815</t>
+          <t>2021-10-05 14:21:04.238029</t>
         </is>
       </c>
     </row>
@@ -11196,7 +11197,7 @@
       </c>
       <c r="F359" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.919818</t>
+          <t>2021-10-05 14:21:04.238032</t>
         </is>
       </c>
     </row>
@@ -11226,7 +11227,7 @@
       </c>
       <c r="F360" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.919820</t>
+          <t>2021-10-05 14:21:04.238034</t>
         </is>
       </c>
     </row>
@@ -11256,7 +11257,7 @@
       </c>
       <c r="F361" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.919823</t>
+          <t>2021-10-05 14:21:04.238037</t>
         </is>
       </c>
     </row>
@@ -11286,7 +11287,7 @@
       </c>
       <c r="F362" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.919826</t>
+          <t>2021-10-05 14:21:04.238040</t>
         </is>
       </c>
     </row>
@@ -11316,7 +11317,7 @@
       </c>
       <c r="F363" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.919828</t>
+          <t>2021-10-05 14:21:04.238043</t>
         </is>
       </c>
     </row>
@@ -11346,7 +11347,7 @@
       </c>
       <c r="F364" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.919831</t>
+          <t>2021-10-05 14:21:04.238045</t>
         </is>
       </c>
     </row>
@@ -11376,7 +11377,7 @@
       </c>
       <c r="F365" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.919833</t>
+          <t>2021-10-05 14:21:04.238048</t>
         </is>
       </c>
     </row>
@@ -11406,7 +11407,7 @@
       </c>
       <c r="F366" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.919836</t>
+          <t>2021-10-05 14:21:04.238051</t>
         </is>
       </c>
     </row>
@@ -11436,7 +11437,7 @@
       </c>
       <c r="F367" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.919838</t>
+          <t>2021-10-05 14:21:04.238053</t>
         </is>
       </c>
     </row>
@@ -11466,7 +11467,7 @@
       </c>
       <c r="F368" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.919841</t>
+          <t>2021-10-05 14:21:04.238056</t>
         </is>
       </c>
     </row>
@@ -11496,7 +11497,7 @@
       </c>
       <c r="F369" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.919843</t>
+          <t>2021-10-05 14:21:04.238059</t>
         </is>
       </c>
     </row>
@@ -11526,7 +11527,7 @@
       </c>
       <c r="F370" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.919846</t>
+          <t>2021-10-05 14:21:04.238062</t>
         </is>
       </c>
     </row>
@@ -11556,7 +11557,7 @@
       </c>
       <c r="F371" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.919848</t>
+          <t>2021-10-05 14:21:04.238064</t>
         </is>
       </c>
     </row>
@@ -11586,7 +11587,7 @@
       </c>
       <c r="F372" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.919851</t>
+          <t>2021-10-05 14:21:04.238067</t>
         </is>
       </c>
     </row>
@@ -11616,7 +11617,7 @@
       </c>
       <c r="F373" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.919854</t>
+          <t>2021-10-05 14:21:04.238070</t>
         </is>
       </c>
     </row>
@@ -11646,7 +11647,7 @@
       </c>
       <c r="F374" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.919856</t>
+          <t>2021-10-05 14:21:04.238073</t>
         </is>
       </c>
     </row>
@@ -11676,7 +11677,7 @@
       </c>
       <c r="F375" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.919859</t>
+          <t>2021-10-05 14:21:04.238075</t>
         </is>
       </c>
     </row>
@@ -11706,7 +11707,7 @@
       </c>
       <c r="F376" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.919861</t>
+          <t>2021-10-05 14:21:04.238078</t>
         </is>
       </c>
     </row>
@@ -11736,7 +11737,7 @@
       </c>
       <c r="F377" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.919864</t>
+          <t>2021-10-05 14:21:04.238081</t>
         </is>
       </c>
     </row>
@@ -11766,7 +11767,7 @@
       </c>
       <c r="F378" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.919866</t>
+          <t>2021-10-05 14:21:04.238083</t>
         </is>
       </c>
     </row>
@@ -11796,7 +11797,7 @@
       </c>
       <c r="F379" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.919869</t>
+          <t>2021-10-05 14:21:04.238086</t>
         </is>
       </c>
     </row>
@@ -11826,7 +11827,7 @@
       </c>
       <c r="F380" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.919872</t>
+          <t>2021-10-05 14:21:04.238089</t>
         </is>
       </c>
     </row>
@@ -11856,7 +11857,7 @@
       </c>
       <c r="F381" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.919874</t>
+          <t>2021-10-05 14:21:04.238092</t>
         </is>
       </c>
     </row>
@@ -11886,7 +11887,7 @@
       </c>
       <c r="F382" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.919877</t>
+          <t>2021-10-05 14:21:04.238094</t>
         </is>
       </c>
     </row>
@@ -11916,7 +11917,7 @@
       </c>
       <c r="F383" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.919880</t>
+          <t>2021-10-05 14:21:04.238097</t>
         </is>
       </c>
     </row>
@@ -11946,7 +11947,7 @@
       </c>
       <c r="F384" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.919882</t>
+          <t>2021-10-05 14:21:04.238100</t>
         </is>
       </c>
     </row>
@@ -11976,7 +11977,7 @@
       </c>
       <c r="F385" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.919885</t>
+          <t>2021-10-05 14:21:04.238102</t>
         </is>
       </c>
     </row>
@@ -12006,7 +12007,7 @@
       </c>
       <c r="F386" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.919888</t>
+          <t>2021-10-05 14:21:04.238105</t>
         </is>
       </c>
     </row>
@@ -12036,7 +12037,7 @@
       </c>
       <c r="F387" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.919890</t>
+          <t>2021-10-05 14:21:04.238108</t>
         </is>
       </c>
     </row>
@@ -12066,7 +12067,7 @@
       </c>
       <c r="F388" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.919893</t>
+          <t>2021-10-05 14:21:04.238110</t>
         </is>
       </c>
     </row>
@@ -12096,7 +12097,7 @@
       </c>
       <c r="F389" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.919895</t>
+          <t>2021-10-05 14:21:04.238113</t>
         </is>
       </c>
     </row>
@@ -12126,7 +12127,7 @@
       </c>
       <c r="F390" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.919898</t>
+          <t>2021-10-05 14:21:04.238116</t>
         </is>
       </c>
     </row>
@@ -12156,7 +12157,7 @@
       </c>
       <c r="F391" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.919900</t>
+          <t>2021-10-05 14:21:04.238119</t>
         </is>
       </c>
     </row>
@@ -12186,7 +12187,7 @@
       </c>
       <c r="F392" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.919903</t>
+          <t>2021-10-05 14:21:04.238122</t>
         </is>
       </c>
     </row>
@@ -12216,7 +12217,7 @@
       </c>
       <c r="F393" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.919905</t>
+          <t>2021-10-05 14:21:04.238124</t>
         </is>
       </c>
     </row>
@@ -12246,7 +12247,7 @@
       </c>
       <c r="F394" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.919908</t>
+          <t>2021-10-05 14:21:04.238127</t>
         </is>
       </c>
     </row>
@@ -12276,7 +12277,7 @@
       </c>
       <c r="F395" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.919911</t>
+          <t>2021-10-05 14:21:04.238130</t>
         </is>
       </c>
     </row>
@@ -12306,7 +12307,7 @@
       </c>
       <c r="F396" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.919913</t>
+          <t>2021-10-05 14:21:04.238133</t>
         </is>
       </c>
     </row>
@@ -12336,7 +12337,7 @@
       </c>
       <c r="F397" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.919916</t>
+          <t>2021-10-05 14:21:04.238136</t>
         </is>
       </c>
     </row>
@@ -12366,7 +12367,7 @@
       </c>
       <c r="F398" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.919918</t>
+          <t>2021-10-05 14:21:04.238138</t>
         </is>
       </c>
     </row>
@@ -12396,7 +12397,7 @@
       </c>
       <c r="F399" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.919921</t>
+          <t>2021-10-05 14:21:04.238141</t>
         </is>
       </c>
     </row>
@@ -12426,7 +12427,7 @@
       </c>
       <c r="F400" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.919923</t>
+          <t>2021-10-05 14:21:04.238144</t>
         </is>
       </c>
     </row>
@@ -12456,7 +12457,7 @@
       </c>
       <c r="F401" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.919926</t>
+          <t>2021-10-05 14:21:04.238147</t>
         </is>
       </c>
     </row>
@@ -12486,7 +12487,7 @@
       </c>
       <c r="F402" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.919930</t>
+          <t>2021-10-05 14:21:04.238151</t>
         </is>
       </c>
     </row>
@@ -12516,7 +12517,7 @@
       </c>
       <c r="F403" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.919933</t>
+          <t>2021-10-05 14:21:04.238154</t>
         </is>
       </c>
     </row>
@@ -12546,7 +12547,7 @@
       </c>
       <c r="F404" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.919936</t>
+          <t>2021-10-05 14:21:04.238157</t>
         </is>
       </c>
     </row>
@@ -12576,7 +12577,7 @@
       </c>
       <c r="F405" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.919938</t>
+          <t>2021-10-05 14:21:04.238160</t>
         </is>
       </c>
     </row>
@@ -12606,7 +12607,7 @@
       </c>
       <c r="F406" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.919941</t>
+          <t>2021-10-05 14:21:04.238163</t>
         </is>
       </c>
     </row>
@@ -12636,7 +12637,7 @@
       </c>
       <c r="F407" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.919943</t>
+          <t>2021-10-05 14:21:04.238165</t>
         </is>
       </c>
     </row>
@@ -12666,7 +12667,7 @@
       </c>
       <c r="F408" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.919946</t>
+          <t>2021-10-05 14:21:04.238168</t>
         </is>
       </c>
     </row>
@@ -12696,7 +12697,7 @@
       </c>
       <c r="F409" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.919949</t>
+          <t>2021-10-05 14:21:04.238171</t>
         </is>
       </c>
     </row>
@@ -12726,7 +12727,7 @@
       </c>
       <c r="F410" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.919951</t>
+          <t>2021-10-05 14:21:04.238173</t>
         </is>
       </c>
     </row>
@@ -12756,7 +12757,7 @@
       </c>
       <c r="F411" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.919954</t>
+          <t>2021-10-05 14:21:04.238176</t>
         </is>
       </c>
     </row>
@@ -12786,7 +12787,7 @@
       </c>
       <c r="F412" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.919956</t>
+          <t>2021-10-05 14:21:04.238179</t>
         </is>
       </c>
     </row>
@@ -12816,7 +12817,7 @@
       </c>
       <c r="F413" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.919959</t>
+          <t>2021-10-05 14:21:04.238182</t>
         </is>
       </c>
     </row>
@@ -12846,7 +12847,7 @@
       </c>
       <c r="F414" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.919961</t>
+          <t>2021-10-05 14:21:04.238185</t>
         </is>
       </c>
     </row>
@@ -12876,7 +12877,7 @@
       </c>
       <c r="F415" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.919964</t>
+          <t>2021-10-05 14:21:04.238187</t>
         </is>
       </c>
     </row>
@@ -12906,7 +12907,7 @@
       </c>
       <c r="F416" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.919966</t>
+          <t>2021-10-05 14:21:04.238190</t>
         </is>
       </c>
     </row>
@@ -12936,7 +12937,7 @@
       </c>
       <c r="F417" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.919969</t>
+          <t>2021-10-05 14:21:04.238193</t>
         </is>
       </c>
     </row>
@@ -12966,7 +12967,7 @@
       </c>
       <c r="F418" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.919971</t>
+          <t>2021-10-05 14:21:04.238195</t>
         </is>
       </c>
     </row>
@@ -12996,7 +12997,7 @@
       </c>
       <c r="F419" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.919974</t>
+          <t>2021-10-05 14:21:04.238198</t>
         </is>
       </c>
     </row>
@@ -13026,7 +13027,7 @@
       </c>
       <c r="F420" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.919977</t>
+          <t>2021-10-05 14:21:04.238201</t>
         </is>
       </c>
     </row>
@@ -13056,7 +13057,7 @@
       </c>
       <c r="F421" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.919979</t>
+          <t>2021-10-05 14:21:04.238204</t>
         </is>
       </c>
     </row>
@@ -13086,7 +13087,7 @@
       </c>
       <c r="F422" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.919982</t>
+          <t>2021-10-05 14:21:04.238206</t>
         </is>
       </c>
     </row>
@@ -13116,7 +13117,7 @@
       </c>
       <c r="F423" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.919984</t>
+          <t>2021-10-05 14:21:04.238209</t>
         </is>
       </c>
     </row>
@@ -13146,7 +13147,7 @@
       </c>
       <c r="F424" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.919987</t>
+          <t>2021-10-05 14:21:04.238212</t>
         </is>
       </c>
     </row>
@@ -13176,7 +13177,7 @@
       </c>
       <c r="F425" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.919990</t>
+          <t>2021-10-05 14:21:04.238214</t>
         </is>
       </c>
     </row>
@@ -13206,7 +13207,7 @@
       </c>
       <c r="F426" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.919992</t>
+          <t>2021-10-05 14:21:04.238217</t>
         </is>
       </c>
     </row>
@@ -13236,7 +13237,7 @@
       </c>
       <c r="F427" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.919995</t>
+          <t>2021-10-05 14:21:04.238220</t>
         </is>
       </c>
     </row>
@@ -13266,7 +13267,7 @@
       </c>
       <c r="F428" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.919997</t>
+          <t>2021-10-05 14:21:04.238223</t>
         </is>
       </c>
     </row>
@@ -13296,7 +13297,7 @@
       </c>
       <c r="F429" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.920000</t>
+          <t>2021-10-05 14:21:04.238225</t>
         </is>
       </c>
     </row>
@@ -13326,7 +13327,7 @@
       </c>
       <c r="F430" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.920003</t>
+          <t>2021-10-05 14:21:04.238228</t>
         </is>
       </c>
     </row>
@@ -13356,7 +13357,7 @@
       </c>
       <c r="F431" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.920005</t>
+          <t>2021-10-05 14:21:04.238231</t>
         </is>
       </c>
     </row>
@@ -13386,7 +13387,7 @@
       </c>
       <c r="F432" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.920008</t>
+          <t>2021-10-05 14:21:04.238234</t>
         </is>
       </c>
     </row>
@@ -13416,7 +13417,7 @@
       </c>
       <c r="F433" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.920011</t>
+          <t>2021-10-05 14:21:04.238237</t>
         </is>
       </c>
     </row>
@@ -13446,7 +13447,7 @@
       </c>
       <c r="F434" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.920013</t>
+          <t>2021-10-05 14:21:04.238239</t>
         </is>
       </c>
     </row>
@@ -13476,7 +13477,7 @@
       </c>
       <c r="F435" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.920016</t>
+          <t>2021-10-05 14:21:04.238242</t>
         </is>
       </c>
     </row>
@@ -13506,7 +13507,7 @@
       </c>
       <c r="F436" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.920018</t>
+          <t>2021-10-05 14:21:04.238245</t>
         </is>
       </c>
     </row>
@@ -13536,7 +13537,7 @@
       </c>
       <c r="F437" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.920021</t>
+          <t>2021-10-05 14:21:04.238247</t>
         </is>
       </c>
     </row>
@@ -13566,7 +13567,7 @@
       </c>
       <c r="F438" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.920024</t>
+          <t>2021-10-05 14:21:04.238250</t>
         </is>
       </c>
     </row>
@@ -13596,7 +13597,7 @@
       </c>
       <c r="F439" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.920026</t>
+          <t>2021-10-05 14:21:04.238253</t>
         </is>
       </c>
     </row>
@@ -13626,7 +13627,7 @@
       </c>
       <c r="F440" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.920029</t>
+          <t>2021-10-05 14:21:04.238255</t>
         </is>
       </c>
     </row>
@@ -13656,7 +13657,7 @@
       </c>
       <c r="F441" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.920031</t>
+          <t>2021-10-05 14:21:04.238258</t>
         </is>
       </c>
     </row>
@@ -13686,7 +13687,7 @@
       </c>
       <c r="F442" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.920034</t>
+          <t>2021-10-05 14:21:04.238261</t>
         </is>
       </c>
     </row>
@@ -13716,7 +13717,7 @@
       </c>
       <c r="F443" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.920037</t>
+          <t>2021-10-05 14:21:04.238264</t>
         </is>
       </c>
     </row>
@@ -13746,7 +13747,7 @@
       </c>
       <c r="F444" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.920040</t>
+          <t>2021-10-05 14:21:04.238266</t>
         </is>
       </c>
     </row>
@@ -13776,7 +13777,7 @@
       </c>
       <c r="F445" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.920042</t>
+          <t>2021-10-05 14:21:04.238269</t>
         </is>
       </c>
     </row>
@@ -13806,7 +13807,7 @@
       </c>
       <c r="F446" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.920045</t>
+          <t>2021-10-05 14:21:04.238272</t>
         </is>
       </c>
     </row>
@@ -13836,7 +13837,7 @@
       </c>
       <c r="F447" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.920047</t>
+          <t>2021-10-05 14:21:04.238274</t>
         </is>
       </c>
     </row>
@@ -13866,7 +13867,7 @@
       </c>
       <c r="F448" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.920050</t>
+          <t>2021-10-05 14:21:04.238277</t>
         </is>
       </c>
     </row>
@@ -13896,7 +13897,7 @@
       </c>
       <c r="F449" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.920052</t>
+          <t>2021-10-05 14:21:04.238280</t>
         </is>
       </c>
     </row>
@@ -13926,7 +13927,7 @@
       </c>
       <c r="F450" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.920055</t>
+          <t>2021-10-05 14:21:04.238283</t>
         </is>
       </c>
     </row>
@@ -13956,7 +13957,7 @@
       </c>
       <c r="F451" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.920058</t>
+          <t>2021-10-05 14:21:04.238286</t>
         </is>
       </c>
     </row>
@@ -13986,7 +13987,7 @@
       </c>
       <c r="F452" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.920060</t>
+          <t>2021-10-05 14:21:04.238288</t>
         </is>
       </c>
     </row>
@@ -14016,7 +14017,7 @@
       </c>
       <c r="F453" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.920063</t>
+          <t>2021-10-05 14:21:04.238291</t>
         </is>
       </c>
     </row>
@@ -14046,7 +14047,7 @@
       </c>
       <c r="F454" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.920065</t>
+          <t>2021-10-05 14:21:04.238330</t>
         </is>
       </c>
     </row>
@@ -14076,7 +14077,7 @@
       </c>
       <c r="F455" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.920068</t>
+          <t>2021-10-05 14:21:04.238334</t>
         </is>
       </c>
     </row>
@@ -14106,7 +14107,7 @@
       </c>
       <c r="F456" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.920070</t>
+          <t>2021-10-05 14:21:04.238337</t>
         </is>
       </c>
     </row>
@@ -14136,7 +14137,7 @@
       </c>
       <c r="F457" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.920073</t>
+          <t>2021-10-05 14:21:04.238339</t>
         </is>
       </c>
     </row>
@@ -14166,7 +14167,7 @@
       </c>
       <c r="F458" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.920077</t>
+          <t>2021-10-05 14:21:04.238385</t>
         </is>
       </c>
     </row>
@@ -14196,7 +14197,7 @@
       </c>
       <c r="F459" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.920080</t>
+          <t>2021-10-05 14:21:04.238406</t>
         </is>
       </c>
     </row>
@@ -14226,7 +14227,7 @@
       </c>
       <c r="F460" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.920083</t>
+          <t>2021-10-05 14:21:04.238412</t>
         </is>
       </c>
     </row>
@@ -14256,7 +14257,7 @@
       </c>
       <c r="F461" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.920085</t>
+          <t>2021-10-05 14:21:04.238415</t>
         </is>
       </c>
     </row>
@@ -14286,7 +14287,7 @@
       </c>
       <c r="F462" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.920088</t>
+          <t>2021-10-05 14:21:04.238419</t>
         </is>
       </c>
     </row>
@@ -14316,7 +14317,7 @@
       </c>
       <c r="F463" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.920091</t>
+          <t>2021-10-05 14:21:04.238421</t>
         </is>
       </c>
     </row>
@@ -14346,7 +14347,7 @@
       </c>
       <c r="F464" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.920093</t>
+          <t>2021-10-05 14:21:04.238424</t>
         </is>
       </c>
     </row>
@@ -14376,7 +14377,7 @@
       </c>
       <c r="F465" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.920096</t>
+          <t>2021-10-05 14:21:04.238447</t>
         </is>
       </c>
     </row>
@@ -14406,7 +14407,7 @@
       </c>
       <c r="F466" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.920098</t>
+          <t>2021-10-05 14:21:04.238457</t>
         </is>
       </c>
     </row>
@@ -14436,7 +14437,7 @@
       </c>
       <c r="F467" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.920101</t>
+          <t>2021-10-05 14:21:04.238497</t>
         </is>
       </c>
     </row>
@@ -14466,7 +14467,7 @@
       </c>
       <c r="F468" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.920103</t>
+          <t>2021-10-05 14:21:04.238505</t>
         </is>
       </c>
     </row>
@@ -14496,7 +14497,7 @@
       </c>
       <c r="F469" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.920106</t>
+          <t>2021-10-05 14:21:04.238508</t>
         </is>
       </c>
     </row>
@@ -14526,7 +14527,7 @@
       </c>
       <c r="F470" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.920109</t>
+          <t>2021-10-05 14:21:04.238511</t>
         </is>
       </c>
     </row>
@@ -14556,7 +14557,7 @@
       </c>
       <c r="F471" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.920111</t>
+          <t>2021-10-05 14:21:04.238514</t>
         </is>
       </c>
     </row>
@@ -14586,7 +14587,7 @@
       </c>
       <c r="F472" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.920114</t>
+          <t>2021-10-05 14:21:04.238541</t>
         </is>
       </c>
     </row>
@@ -14616,7 +14617,7 @@
       </c>
       <c r="F473" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.920117</t>
+          <t>2021-10-05 14:21:04.238557</t>
         </is>
       </c>
     </row>
@@ -14646,7 +14647,7 @@
       </c>
       <c r="F474" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.920119</t>
+          <t>2021-10-05 14:21:04.238561</t>
         </is>
       </c>
     </row>
@@ -14676,7 +14677,7 @@
       </c>
       <c r="F475" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.920122</t>
+          <t>2021-10-05 14:21:04.238566</t>
         </is>
       </c>
     </row>
@@ -14706,7 +14707,7 @@
       </c>
       <c r="F476" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.920124</t>
+          <t>2021-10-05 14:21:04.238570</t>
         </is>
       </c>
     </row>
@@ -14736,7 +14737,7 @@
       </c>
       <c r="F477" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.920127</t>
+          <t>2021-10-05 14:21:04.238573</t>
         </is>
       </c>
     </row>
@@ -14766,7 +14767,7 @@
       </c>
       <c r="F478" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.920130</t>
+          <t>2021-10-05 14:21:04.238575</t>
         </is>
       </c>
     </row>
@@ -14796,7 +14797,7 @@
       </c>
       <c r="F479" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.920132</t>
+          <t>2021-10-05 14:21:04.238578</t>
         </is>
       </c>
     </row>
@@ -14826,7 +14827,7 @@
       </c>
       <c r="F480" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.920135</t>
+          <t>2021-10-05 14:21:04.238581</t>
         </is>
       </c>
     </row>
@@ -14856,7 +14857,7 @@
       </c>
       <c r="F481" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.920137</t>
+          <t>2021-10-05 14:21:04.238584</t>
         </is>
       </c>
     </row>
@@ -14886,7 +14887,7 @@
       </c>
       <c r="F482" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.920140</t>
+          <t>2021-10-05 14:21:04.238586</t>
         </is>
       </c>
     </row>
@@ -14916,7 +14917,7 @@
       </c>
       <c r="F483" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.920142</t>
+          <t>2021-10-05 14:21:04.238589</t>
         </is>
       </c>
     </row>
@@ -14946,7 +14947,7 @@
       </c>
       <c r="F484" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.920145</t>
+          <t>2021-10-05 14:21:04.238592</t>
         </is>
       </c>
     </row>
@@ -14976,7 +14977,7 @@
       </c>
       <c r="F485" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.920147</t>
+          <t>2021-10-05 14:21:04.238595</t>
         </is>
       </c>
     </row>
@@ -15006,7 +15007,7 @@
       </c>
       <c r="F486" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.920150</t>
+          <t>2021-10-05 14:21:04.238597</t>
         </is>
       </c>
     </row>
@@ -15036,7 +15037,7 @@
       </c>
       <c r="F487" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.920152</t>
+          <t>2021-10-05 14:21:04.238600</t>
         </is>
       </c>
     </row>
@@ -15066,7 +15067,7 @@
       </c>
       <c r="F488" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.920155</t>
+          <t>2021-10-05 14:21:04.238603</t>
         </is>
       </c>
     </row>
@@ -15096,7 +15097,7 @@
       </c>
       <c r="F489" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.920157</t>
+          <t>2021-10-05 14:21:04.238605</t>
         </is>
       </c>
     </row>
@@ -15126,7 +15127,7 @@
       </c>
       <c r="F490" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.920160</t>
+          <t>2021-10-05 14:21:04.238608</t>
         </is>
       </c>
     </row>
@@ -15156,7 +15157,7 @@
       </c>
       <c r="F491" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.920163</t>
+          <t>2021-10-05 14:21:04.238611</t>
         </is>
       </c>
     </row>
@@ -15186,7 +15187,7 @@
       </c>
       <c r="F492" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.920165</t>
+          <t>2021-10-05 14:21:04.238614</t>
         </is>
       </c>
     </row>
@@ -15216,7 +15217,7 @@
       </c>
       <c r="F493" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.920168</t>
+          <t>2021-10-05 14:21:04.238617</t>
         </is>
       </c>
     </row>
@@ -15246,7 +15247,7 @@
       </c>
       <c r="F494" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.920170</t>
+          <t>2021-10-05 14:21:04.238620</t>
         </is>
       </c>
     </row>
@@ -15276,7 +15277,7 @@
       </c>
       <c r="F495" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.920173</t>
+          <t>2021-10-05 14:21:04.238623</t>
         </is>
       </c>
     </row>
@@ -15306,7 +15307,7 @@
       </c>
       <c r="F496" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.920175</t>
+          <t>2021-10-05 14:21:04.238625</t>
         </is>
       </c>
     </row>
@@ -15336,7 +15337,7 @@
       </c>
       <c r="F497" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.920178</t>
+          <t>2021-10-05 14:21:04.238628</t>
         </is>
       </c>
     </row>
@@ -15366,7 +15367,7 @@
       </c>
       <c r="F498" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.920181</t>
+          <t>2021-10-05 14:21:04.238631</t>
         </is>
       </c>
     </row>
@@ -15396,7 +15397,7 @@
       </c>
       <c r="F499" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.920183</t>
+          <t>2021-10-05 14:21:04.238633</t>
         </is>
       </c>
     </row>
@@ -15426,7 +15427,7 @@
       </c>
       <c r="F500" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.920186</t>
+          <t>2021-10-05 14:21:04.238636</t>
         </is>
       </c>
     </row>
@@ -15456,7 +15457,7 @@
       </c>
       <c r="F501" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.920188</t>
+          <t>2021-10-05 14:21:04.238639</t>
         </is>
       </c>
     </row>
@@ -15486,7 +15487,7 @@
       </c>
       <c r="F502" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.920191</t>
+          <t>2021-10-05 14:21:04.238642</t>
         </is>
       </c>
     </row>
@@ -15516,7 +15517,7 @@
       </c>
       <c r="F503" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.920194</t>
+          <t>2021-10-05 14:21:04.238644</t>
         </is>
       </c>
     </row>
@@ -15546,7 +15547,7 @@
       </c>
       <c r="F504" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.920196</t>
+          <t>2021-10-05 14:21:04.238647</t>
         </is>
       </c>
     </row>
@@ -15576,7 +15577,7 @@
       </c>
       <c r="F505" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.920199</t>
+          <t>2021-10-05 14:21:04.238650</t>
         </is>
       </c>
     </row>
@@ -15606,7 +15607,7 @@
       </c>
       <c r="F506" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.920201</t>
+          <t>2021-10-05 14:21:04.238653</t>
         </is>
       </c>
     </row>
@@ -15636,7 +15637,7 @@
       </c>
       <c r="F507" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.920204</t>
+          <t>2021-10-05 14:21:04.238656</t>
         </is>
       </c>
     </row>
@@ -15666,7 +15667,7 @@
       </c>
       <c r="F508" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.920206</t>
+          <t>2021-10-05 14:21:04.238658</t>
         </is>
       </c>
     </row>
@@ -15696,7 +15697,7 @@
       </c>
       <c r="F509" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.920209</t>
+          <t>2021-10-05 14:21:04.238661</t>
         </is>
       </c>
     </row>
@@ -15726,7 +15727,7 @@
       </c>
       <c r="F510" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.920211</t>
+          <t>2021-10-05 14:21:04.238664</t>
         </is>
       </c>
     </row>
@@ -15756,7 +15757,7 @@
       </c>
       <c r="F511" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.920214</t>
+          <t>2021-10-05 14:21:04.238667</t>
         </is>
       </c>
     </row>
@@ -15786,7 +15787,7 @@
       </c>
       <c r="F512" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.920217</t>
+          <t>2021-10-05 14:21:04.238669</t>
         </is>
       </c>
     </row>
@@ -15816,7 +15817,7 @@
       </c>
       <c r="F513" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.920219</t>
+          <t>2021-10-05 14:21:04.238672</t>
         </is>
       </c>
     </row>
@@ -15846,7 +15847,7 @@
       </c>
       <c r="F514" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.920222</t>
+          <t>2021-10-05 14:21:04.238675</t>
         </is>
       </c>
     </row>
@@ -15876,7 +15877,7 @@
       </c>
       <c r="F515" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.920224</t>
+          <t>2021-10-05 14:21:04.238678</t>
         </is>
       </c>
     </row>
@@ -15906,7 +15907,7 @@
       </c>
       <c r="F516" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.920227</t>
+          <t>2021-10-05 14:21:04.238680</t>
         </is>
       </c>
     </row>
@@ -15936,7 +15937,7 @@
       </c>
       <c r="F517" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.920229</t>
+          <t>2021-10-05 14:21:04.238683</t>
         </is>
       </c>
     </row>
@@ -15966,7 +15967,7 @@
       </c>
       <c r="F518" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.920232</t>
+          <t>2021-10-05 14:21:04.238685</t>
         </is>
       </c>
     </row>
@@ -15996,7 +15997,7 @@
       </c>
       <c r="F519" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.920234</t>
+          <t>2021-10-05 14:21:04.238688</t>
         </is>
       </c>
     </row>
@@ -16026,7 +16027,7 @@
       </c>
       <c r="F520" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.920237</t>
+          <t>2021-10-05 14:21:04.238691</t>
         </is>
       </c>
     </row>
@@ -16056,7 +16057,7 @@
       </c>
       <c r="F521" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.920239</t>
+          <t>2021-10-05 14:21:04.238694</t>
         </is>
       </c>
     </row>
@@ -16086,7 +16087,7 @@
       </c>
       <c r="F522" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.920243</t>
+          <t>2021-10-05 14:21:04.238698</t>
         </is>
       </c>
     </row>
@@ -16116,7 +16117,7 @@
       </c>
       <c r="F523" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.920246</t>
+          <t>2021-10-05 14:21:04.238701</t>
         </is>
       </c>
     </row>
@@ -16146,7 +16147,7 @@
       </c>
       <c r="F524" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.920249</t>
+          <t>2021-10-05 14:21:04.238704</t>
         </is>
       </c>
     </row>
@@ -16176,7 +16177,7 @@
       </c>
       <c r="F525" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.920252</t>
+          <t>2021-10-05 14:21:04.238707</t>
         </is>
       </c>
     </row>
@@ -16206,7 +16207,7 @@
       </c>
       <c r="F526" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.920254</t>
+          <t>2021-10-05 14:21:04.238710</t>
         </is>
       </c>
     </row>
@@ -16236,7 +16237,7 @@
       </c>
       <c r="F527" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.920257</t>
+          <t>2021-10-05 14:21:04.238713</t>
         </is>
       </c>
     </row>
@@ -16266,7 +16267,7 @@
       </c>
       <c r="F528" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.920259</t>
+          <t>2021-10-05 14:21:04.238715</t>
         </is>
       </c>
     </row>
@@ -16296,7 +16297,7 @@
       </c>
       <c r="F529" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.920262</t>
+          <t>2021-10-05 14:21:04.238718</t>
         </is>
       </c>
     </row>
@@ -16326,7 +16327,7 @@
       </c>
       <c r="F530" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.920264</t>
+          <t>2021-10-05 14:21:04.238721</t>
         </is>
       </c>
     </row>
@@ -16356,7 +16357,7 @@
       </c>
       <c r="F531" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.920267</t>
+          <t>2021-10-05 14:21:04.238724</t>
         </is>
       </c>
     </row>
@@ -16386,7 +16387,7 @@
       </c>
       <c r="F532" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.920269</t>
+          <t>2021-10-05 14:21:04.238727</t>
         </is>
       </c>
     </row>
@@ -16416,7 +16417,7 @@
       </c>
       <c r="F533" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.920272</t>
+          <t>2021-10-05 14:21:04.238729</t>
         </is>
       </c>
     </row>
@@ -16446,7 +16447,7 @@
       </c>
       <c r="F534" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.920274</t>
+          <t>2021-10-05 14:21:04.238732</t>
         </is>
       </c>
     </row>
@@ -16476,7 +16477,7 @@
       </c>
       <c r="F535" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.920277</t>
+          <t>2021-10-05 14:21:04.238735</t>
         </is>
       </c>
     </row>
@@ -16506,7 +16507,7 @@
       </c>
       <c r="F536" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.920279</t>
+          <t>2021-10-05 14:21:04.238738</t>
         </is>
       </c>
     </row>
@@ -16536,7 +16537,7 @@
       </c>
       <c r="F537" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.920282</t>
+          <t>2021-10-05 14:21:04.238741</t>
         </is>
       </c>
     </row>
@@ -16566,7 +16567,7 @@
       </c>
       <c r="F538" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.920285</t>
+          <t>2021-10-05 14:21:04.238743</t>
         </is>
       </c>
     </row>
@@ -16596,7 +16597,7 @@
       </c>
       <c r="F539" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.920287</t>
+          <t>2021-10-05 14:21:04.238746</t>
         </is>
       </c>
     </row>
@@ -16626,7 +16627,7 @@
       </c>
       <c r="F540" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.920290</t>
+          <t>2021-10-05 14:21:04.238749</t>
         </is>
       </c>
     </row>
@@ -16656,7 +16657,7 @@
       </c>
       <c r="F541" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.920292</t>
+          <t>2021-10-05 14:21:04.238751</t>
         </is>
       </c>
     </row>
@@ -16686,7 +16687,7 @@
       </c>
       <c r="F542" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.920295</t>
+          <t>2021-10-05 14:21:04.238754</t>
         </is>
       </c>
     </row>
@@ -16716,7 +16717,7 @@
       </c>
       <c r="F543" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.920297</t>
+          <t>2021-10-05 14:21:04.238757</t>
         </is>
       </c>
     </row>
@@ -16746,7 +16747,7 @@
       </c>
       <c r="F544" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.920300</t>
+          <t>2021-10-05 14:21:04.238760</t>
         </is>
       </c>
     </row>
@@ -16776,7 +16777,7 @@
       </c>
       <c r="F545" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.920303</t>
+          <t>2021-10-05 14:21:04.238762</t>
         </is>
       </c>
     </row>
@@ -16806,7 +16807,7 @@
       </c>
       <c r="F546" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.920305</t>
+          <t>2021-10-05 14:21:04.238765</t>
         </is>
       </c>
     </row>
@@ -16836,7 +16837,7 @@
       </c>
       <c r="F547" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.920308</t>
+          <t>2021-10-05 14:21:04.238768</t>
         </is>
       </c>
     </row>
@@ -16866,7 +16867,7 @@
       </c>
       <c r="F548" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.920310</t>
+          <t>2021-10-05 14:21:04.238771</t>
         </is>
       </c>
     </row>
@@ -16896,7 +16897,7 @@
       </c>
       <c r="F549" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.920313</t>
+          <t>2021-10-05 14:21:04.238773</t>
         </is>
       </c>
     </row>
@@ -16926,7 +16927,7 @@
       </c>
       <c r="F550" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.920315</t>
+          <t>2021-10-05 14:21:04.238776</t>
         </is>
       </c>
     </row>
@@ -16956,7 +16957,7 @@
       </c>
       <c r="F551" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.920318</t>
+          <t>2021-10-05 14:21:04.238779</t>
         </is>
       </c>
     </row>
@@ -16986,7 +16987,7 @@
       </c>
       <c r="F552" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.920321</t>
+          <t>2021-10-05 14:21:04.238782</t>
         </is>
       </c>
     </row>
@@ -17016,7 +17017,7 @@
       </c>
       <c r="F553" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.920323</t>
+          <t>2021-10-05 14:21:04.238784</t>
         </is>
       </c>
     </row>
@@ -17046,7 +17047,7 @@
       </c>
       <c r="F554" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.920326</t>
+          <t>2021-10-05 14:21:04.238787</t>
         </is>
       </c>
     </row>
@@ -17076,7 +17077,7 @@
       </c>
       <c r="F555" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.920328</t>
+          <t>2021-10-05 14:21:04.238790</t>
         </is>
       </c>
     </row>
@@ -17106,7 +17107,7 @@
       </c>
       <c r="F556" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.920331</t>
+          <t>2021-10-05 14:21:04.238792</t>
         </is>
       </c>
     </row>
@@ -17136,7 +17137,7 @@
       </c>
       <c r="F557" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.920333</t>
+          <t>2021-10-05 14:21:04.238795</t>
         </is>
       </c>
     </row>
@@ -17166,7 +17167,7 @@
       </c>
       <c r="F558" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.920336</t>
+          <t>2021-10-05 14:21:04.238798</t>
         </is>
       </c>
     </row>
@@ -17196,7 +17197,7 @@
       </c>
       <c r="F559" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.920338</t>
+          <t>2021-10-05 14:21:04.238801</t>
         </is>
       </c>
     </row>
@@ -17226,7 +17227,7 @@
       </c>
       <c r="F560" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.920341</t>
+          <t>2021-10-05 14:21:04.238803</t>
         </is>
       </c>
     </row>
@@ -17256,7 +17257,7 @@
       </c>
       <c r="F561" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.920343</t>
+          <t>2021-10-05 14:21:04.238806</t>
         </is>
       </c>
     </row>
@@ -17286,7 +17287,7 @@
       </c>
       <c r="F562" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.920346</t>
+          <t>2021-10-05 14:21:04.238809</t>
         </is>
       </c>
     </row>
@@ -17316,7 +17317,7 @@
       </c>
       <c r="F563" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.920349</t>
+          <t>2021-10-05 14:21:04.238812</t>
         </is>
       </c>
     </row>
@@ -17346,7 +17347,7 @@
       </c>
       <c r="F564" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.920351</t>
+          <t>2021-10-05 14:21:04.238814</t>
         </is>
       </c>
     </row>
@@ -17376,7 +17377,7 @@
       </c>
       <c r="F565" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.920354</t>
+          <t>2021-10-05 14:21:04.238818</t>
         </is>
       </c>
     </row>
@@ -17406,7 +17407,7 @@
       </c>
       <c r="F566" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.920356</t>
+          <t>2021-10-05 14:21:04.238820</t>
         </is>
       </c>
     </row>
@@ -17436,7 +17437,7 @@
       </c>
       <c r="F567" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.920359</t>
+          <t>2021-10-05 14:21:04.238823</t>
         </is>
       </c>
     </row>
@@ -17466,7 +17467,7 @@
       </c>
       <c r="F568" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.920362</t>
+          <t>2021-10-05 14:21:04.238826</t>
         </is>
       </c>
     </row>
@@ -17496,7 +17497,7 @@
       </c>
       <c r="F569" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.920364</t>
+          <t>2021-10-05 14:21:04.238829</t>
         </is>
       </c>
     </row>
@@ -17526,7 +17527,7 @@
       </c>
       <c r="F570" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.920367</t>
+          <t>2021-10-05 14:21:04.238831</t>
         </is>
       </c>
     </row>
@@ -17556,7 +17557,7 @@
       </c>
       <c r="F571" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.920370</t>
+          <t>2021-10-05 14:21:04.238834</t>
         </is>
       </c>
     </row>
@@ -17586,7 +17587,7 @@
       </c>
       <c r="F572" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.920373</t>
+          <t>2021-10-05 14:21:04.238837</t>
         </is>
       </c>
     </row>
@@ -17616,7 +17617,7 @@
       </c>
       <c r="F573" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.920375</t>
+          <t>2021-10-05 14:21:04.238841</t>
         </is>
       </c>
     </row>
@@ -17646,7 +17647,7 @@
       </c>
       <c r="F574" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.920378</t>
+          <t>2021-10-05 14:21:04.238844</t>
         </is>
       </c>
     </row>
@@ -17676,7 +17677,7 @@
       </c>
       <c r="F575" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.920380</t>
+          <t>2021-10-05 14:21:04.238847</t>
         </is>
       </c>
     </row>
@@ -17706,7 +17707,7 @@
       </c>
       <c r="F576" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.920383</t>
+          <t>2021-10-05 14:21:04.238850</t>
         </is>
       </c>
     </row>
@@ -17736,7 +17737,7 @@
       </c>
       <c r="F577" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.920385</t>
+          <t>2021-10-05 14:21:04.238852</t>
         </is>
       </c>
     </row>
@@ -17766,7 +17767,7 @@
       </c>
       <c r="F578" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.920388</t>
+          <t>2021-10-05 14:21:04.238855</t>
         </is>
       </c>
     </row>
@@ -17796,7 +17797,7 @@
       </c>
       <c r="F579" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.920390</t>
+          <t>2021-10-05 14:21:04.238858</t>
         </is>
       </c>
     </row>
@@ -17826,7 +17827,7 @@
       </c>
       <c r="F580" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.920393</t>
+          <t>2021-10-05 14:21:04.238860</t>
         </is>
       </c>
     </row>
@@ -17856,7 +17857,7 @@
       </c>
       <c r="F581" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.920396</t>
+          <t>2021-10-05 14:21:04.238863</t>
         </is>
       </c>
     </row>
@@ -17886,7 +17887,7 @@
       </c>
       <c r="F582" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.920398</t>
+          <t>2021-10-05 14:21:04.238866</t>
         </is>
       </c>
     </row>
@@ -17916,7 +17917,7 @@
       </c>
       <c r="F583" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.920401</t>
+          <t>2021-10-05 14:21:04.238869</t>
         </is>
       </c>
     </row>
@@ -17946,7 +17947,7 @@
       </c>
       <c r="F584" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.920403</t>
+          <t>2021-10-05 14:21:04.238872</t>
         </is>
       </c>
     </row>
@@ -17976,7 +17977,7 @@
       </c>
       <c r="F585" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.920405</t>
+          <t>2021-10-05 14:21:04.238874</t>
         </is>
       </c>
     </row>
@@ -18006,7 +18007,7 @@
       </c>
       <c r="F586" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.920408</t>
+          <t>2021-10-05 14:21:04.238877</t>
         </is>
       </c>
     </row>
@@ -18036,7 +18037,7 @@
       </c>
       <c r="F587" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.920411</t>
+          <t>2021-10-05 14:21:04.238880</t>
         </is>
       </c>
     </row>
@@ -18066,7 +18067,7 @@
       </c>
       <c r="F588" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.920413</t>
+          <t>2021-10-05 14:21:04.238883</t>
         </is>
       </c>
     </row>
@@ -18096,7 +18097,7 @@
       </c>
       <c r="F589" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.920416</t>
+          <t>2021-10-05 14:21:04.238885</t>
         </is>
       </c>
     </row>
@@ -18126,7 +18127,7 @@
       </c>
       <c r="F590" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.920418</t>
+          <t>2021-10-05 14:21:04.238888</t>
         </is>
       </c>
     </row>
@@ -18156,7 +18157,7 @@
       </c>
       <c r="F591" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.920421</t>
+          <t>2021-10-05 14:21:04.238891</t>
         </is>
       </c>
     </row>
@@ -18186,7 +18187,7 @@
       </c>
       <c r="F592" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.920424</t>
+          <t>2021-10-05 14:21:04.238894</t>
         </is>
       </c>
     </row>
@@ -18216,7 +18217,7 @@
       </c>
       <c r="F593" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.920427</t>
+          <t>2021-10-05 14:21:04.238896</t>
         </is>
       </c>
     </row>
@@ -18246,7 +18247,7 @@
       </c>
       <c r="F594" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.920430</t>
+          <t>2021-10-05 14:21:04.238900</t>
         </is>
       </c>
     </row>
@@ -18276,7 +18277,7 @@
       </c>
       <c r="F595" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.920433</t>
+          <t>2021-10-05 14:21:04.238903</t>
         </is>
       </c>
     </row>
@@ -18306,7 +18307,7 @@
       </c>
       <c r="F596" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.920436</t>
+          <t>2021-10-05 14:21:04.238906</t>
         </is>
       </c>
     </row>
@@ -18336,7 +18337,7 @@
       </c>
       <c r="F597" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.920438</t>
+          <t>2021-10-05 14:21:04.238909</t>
         </is>
       </c>
     </row>
@@ -18366,7 +18367,7 @@
       </c>
       <c r="F598" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.920441</t>
+          <t>2021-10-05 14:21:04.238912</t>
         </is>
       </c>
     </row>
@@ -18396,7 +18397,7 @@
       </c>
       <c r="F599" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.920444</t>
+          <t>2021-10-05 14:21:04.238914</t>
         </is>
       </c>
     </row>
@@ -18426,7 +18427,7 @@
       </c>
       <c r="F600" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.920446</t>
+          <t>2021-10-05 14:21:04.238917</t>
         </is>
       </c>
     </row>
@@ -18456,7 +18457,7 @@
       </c>
       <c r="F601" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.920449</t>
+          <t>2021-10-05 14:21:04.238920</t>
         </is>
       </c>
     </row>
@@ -18486,7 +18487,7 @@
       </c>
       <c r="F602" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.920451</t>
+          <t>2021-10-05 14:21:04.238922</t>
         </is>
       </c>
     </row>
@@ -18516,7 +18517,7 @@
       </c>
       <c r="F603" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.920454</t>
+          <t>2021-10-05 14:21:04.238925</t>
         </is>
       </c>
     </row>
@@ -18546,7 +18547,7 @@
       </c>
       <c r="F604" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.920457</t>
+          <t>2021-10-05 14:21:04.238928</t>
         </is>
       </c>
     </row>
@@ -18576,7 +18577,7 @@
       </c>
       <c r="F605" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.920459</t>
+          <t>2021-10-05 14:21:04.238930</t>
         </is>
       </c>
     </row>
@@ -18606,7 +18607,7 @@
       </c>
       <c r="F606" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.920462</t>
+          <t>2021-10-05 14:21:04.238933</t>
         </is>
       </c>
     </row>
@@ -18636,7 +18637,7 @@
       </c>
       <c r="F607" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.920464</t>
+          <t>2021-10-05 14:21:04.238936</t>
         </is>
       </c>
     </row>
@@ -18666,7 +18667,7 @@
       </c>
       <c r="F608" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.920467</t>
+          <t>2021-10-05 14:21:04.238938</t>
         </is>
       </c>
     </row>
@@ -18696,7 +18697,7 @@
       </c>
       <c r="F609" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.920469</t>
+          <t>2021-10-05 14:21:04.238941</t>
         </is>
       </c>
     </row>
@@ -18726,7 +18727,7 @@
       </c>
       <c r="F610" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.920472</t>
+          <t>2021-10-05 14:21:04.238944</t>
         </is>
       </c>
     </row>
@@ -18756,7 +18757,7 @@
       </c>
       <c r="F611" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.920474</t>
+          <t>2021-10-05 14:21:04.238946</t>
         </is>
       </c>
     </row>
@@ -18786,7 +18787,7 @@
       </c>
       <c r="F612" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.920477</t>
+          <t>2021-10-05 14:21:04.238949</t>
         </is>
       </c>
     </row>
@@ -18816,7 +18817,7 @@
       </c>
       <c r="F613" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.920479</t>
+          <t>2021-10-05 14:21:04.238952</t>
         </is>
       </c>
     </row>
@@ -18846,7 +18847,7 @@
       </c>
       <c r="F614" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.920482</t>
+          <t>2021-10-05 14:21:04.238954</t>
         </is>
       </c>
     </row>
@@ -18876,7 +18877,7 @@
       </c>
       <c r="F615" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.920484</t>
+          <t>2021-10-05 14:21:04.238957</t>
         </is>
       </c>
     </row>
@@ -18906,7 +18907,7 @@
       </c>
       <c r="F616" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.920487</t>
+          <t>2021-10-05 14:21:04.238959</t>
         </is>
       </c>
     </row>
@@ -18936,7 +18937,7 @@
       </c>
       <c r="F617" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.920490</t>
+          <t>2021-10-05 14:21:04.238962</t>
         </is>
       </c>
     </row>
@@ -18966,7 +18967,7 @@
       </c>
       <c r="F618" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.920492</t>
+          <t>2021-10-05 14:21:04.238965</t>
         </is>
       </c>
     </row>
@@ -18996,7 +18997,7 @@
       </c>
       <c r="F619" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.920495</t>
+          <t>2021-10-05 14:21:04.238968</t>
         </is>
       </c>
     </row>
@@ -19026,7 +19027,7 @@
       </c>
       <c r="F620" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.920497</t>
+          <t>2021-10-05 14:21:04.238970</t>
         </is>
       </c>
     </row>
@@ -19056,7 +19057,7 @@
       </c>
       <c r="F621" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.920500</t>
+          <t>2021-10-05 14:21:04.238973</t>
         </is>
       </c>
     </row>
@@ -19086,7 +19087,7 @@
       </c>
       <c r="F622" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.920503</t>
+          <t>2021-10-05 14:21:04.238976</t>
         </is>
       </c>
     </row>
@@ -19116,7 +19117,7 @@
       </c>
       <c r="F623" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.920505</t>
+          <t>2021-10-05 14:21:04.238978</t>
         </is>
       </c>
     </row>
@@ -19146,7 +19147,7 @@
       </c>
       <c r="F624" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.920508</t>
+          <t>2021-10-05 14:21:04.238981</t>
         </is>
       </c>
     </row>
@@ -19176,7 +19177,7 @@
       </c>
       <c r="F625" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.920511</t>
+          <t>2021-10-05 14:21:04.238984</t>
         </is>
       </c>
     </row>
@@ -19206,7 +19207,7 @@
       </c>
       <c r="F626" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.920513</t>
+          <t>2021-10-05 14:21:04.238987</t>
         </is>
       </c>
     </row>
@@ -19236,7 +19237,7 @@
       </c>
       <c r="F627" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.920516</t>
+          <t>2021-10-05 14:21:04.238990</t>
         </is>
       </c>
     </row>
@@ -19266,7 +19267,7 @@
       </c>
       <c r="F628" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.920519</t>
+          <t>2021-10-05 14:21:04.238992</t>
         </is>
       </c>
     </row>
@@ -19296,7 +19297,7 @@
       </c>
       <c r="F629" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.920521</t>
+          <t>2021-10-05 14:21:04.238995</t>
         </is>
       </c>
     </row>
@@ -19326,7 +19327,7 @@
       </c>
       <c r="F630" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.920524</t>
+          <t>2021-10-05 14:21:04.238998</t>
         </is>
       </c>
     </row>
@@ -19356,7 +19357,7 @@
       </c>
       <c r="F631" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.920527</t>
+          <t>2021-10-05 14:21:04.239001</t>
         </is>
       </c>
     </row>
@@ -19386,7 +19387,7 @@
       </c>
       <c r="F632" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.920529</t>
+          <t>2021-10-05 14:21:04.239004</t>
         </is>
       </c>
     </row>
@@ -19416,7 +19417,7 @@
       </c>
       <c r="F633" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.920532</t>
+          <t>2021-10-05 14:21:04.239007</t>
         </is>
       </c>
     </row>
@@ -19446,7 +19447,7 @@
       </c>
       <c r="F634" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.920534</t>
+          <t>2021-10-05 14:21:04.239009</t>
         </is>
       </c>
     </row>
@@ -19476,7 +19477,7 @@
       </c>
       <c r="F635" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.920537</t>
+          <t>2021-10-05 14:21:04.239012</t>
         </is>
       </c>
     </row>
@@ -19506,7 +19507,7 @@
       </c>
       <c r="F636" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.920540</t>
+          <t>2021-10-05 14:21:04.239015</t>
         </is>
       </c>
     </row>
@@ -19536,7 +19537,7 @@
       </c>
       <c r="F637" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.920542</t>
+          <t>2021-10-05 14:21:04.239018</t>
         </is>
       </c>
     </row>
@@ -19566,7 +19567,7 @@
       </c>
       <c r="F638" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.920545</t>
+          <t>2021-10-05 14:21:04.239021</t>
         </is>
       </c>
     </row>
@@ -19596,7 +19597,7 @@
       </c>
       <c r="F639" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.920548</t>
+          <t>2021-10-05 14:21:04.239023</t>
         </is>
       </c>
     </row>
@@ -19626,7 +19627,7 @@
       </c>
       <c r="F640" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.920551</t>
+          <t>2021-10-05 14:21:04.239026</t>
         </is>
       </c>
     </row>
@@ -19656,7 +19657,7 @@
       </c>
       <c r="F641" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.920553</t>
+          <t>2021-10-05 14:21:04.239029</t>
         </is>
       </c>
     </row>
@@ -19686,7 +19687,7 @@
       </c>
       <c r="F642" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.920556</t>
+          <t>2021-10-05 14:21:04.239032</t>
         </is>
       </c>
     </row>
@@ -19716,7 +19717,7 @@
       </c>
       <c r="F643" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.920558</t>
+          <t>2021-10-05 14:21:04.239035</t>
         </is>
       </c>
     </row>
@@ -19746,7 +19747,7 @@
       </c>
       <c r="F644" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.920561</t>
+          <t>2021-10-05 14:21:04.239037</t>
         </is>
       </c>
     </row>
@@ -19776,7 +19777,7 @@
       </c>
       <c r="F645" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.920564</t>
+          <t>2021-10-05 14:21:04.239040</t>
         </is>
       </c>
     </row>
@@ -19806,7 +19807,7 @@
       </c>
       <c r="F646" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.920566</t>
+          <t>2021-10-05 14:21:04.239043</t>
         </is>
       </c>
     </row>
@@ -19836,7 +19837,7 @@
       </c>
       <c r="F647" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.920569</t>
+          <t>2021-10-05 14:21:04.239046</t>
         </is>
       </c>
     </row>
@@ -19866,7 +19867,7 @@
       </c>
       <c r="F648" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.920571</t>
+          <t>2021-10-05 14:21:04.239048</t>
         </is>
       </c>
     </row>
@@ -19896,7 +19897,7 @@
       </c>
       <c r="F649" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.920574</t>
+          <t>2021-10-05 14:21:04.239051</t>
         </is>
       </c>
     </row>
@@ -19926,7 +19927,7 @@
       </c>
       <c r="F650" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.920577</t>
+          <t>2021-10-05 14:21:04.239054</t>
         </is>
       </c>
     </row>
@@ -19956,7 +19957,7 @@
       </c>
       <c r="F651" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.920580</t>
+          <t>2021-10-05 14:21:04.239056</t>
         </is>
       </c>
     </row>
@@ -19986,7 +19987,7 @@
       </c>
       <c r="F652" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.920582</t>
+          <t>2021-10-05 14:21:04.239059</t>
         </is>
       </c>
     </row>
@@ -20016,7 +20017,7 @@
       </c>
       <c r="F653" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.920585</t>
+          <t>2021-10-05 14:21:04.239062</t>
         </is>
       </c>
     </row>
@@ -20046,7 +20047,7 @@
       </c>
       <c r="F654" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.920587</t>
+          <t>2021-10-05 14:21:04.239065</t>
         </is>
       </c>
     </row>
@@ -20076,7 +20077,7 @@
       </c>
       <c r="F655" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.920590</t>
+          <t>2021-10-05 14:21:04.239068</t>
         </is>
       </c>
     </row>
@@ -20106,7 +20107,7 @@
       </c>
       <c r="F656" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.920593</t>
+          <t>2021-10-05 14:21:04.239070</t>
         </is>
       </c>
     </row>
@@ -20136,7 +20137,7 @@
       </c>
       <c r="F657" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.920595</t>
+          <t>2021-10-05 14:21:04.239073</t>
         </is>
       </c>
     </row>
@@ -20166,7 +20167,7 @@
       </c>
       <c r="F658" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.920598</t>
+          <t>2021-10-05 14:21:04.239076</t>
         </is>
       </c>
     </row>
@@ -20196,7 +20197,7 @@
       </c>
       <c r="F659" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.920601</t>
+          <t>2021-10-05 14:21:04.239079</t>
         </is>
       </c>
     </row>
@@ -20226,7 +20227,7 @@
       </c>
       <c r="F660" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.920603</t>
+          <t>2021-10-05 14:21:04.239082</t>
         </is>
       </c>
     </row>
@@ -20256,7 +20257,7 @@
       </c>
       <c r="F661" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.920606</t>
+          <t>2021-10-05 14:21:04.239084</t>
         </is>
       </c>
     </row>
@@ -20286,7 +20287,7 @@
       </c>
       <c r="F662" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.920609</t>
+          <t>2021-10-05 14:21:04.239087</t>
         </is>
       </c>
     </row>
@@ -20316,7 +20317,7 @@
       </c>
       <c r="F663" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.920611</t>
+          <t>2021-10-05 14:21:04.239090</t>
         </is>
       </c>
     </row>
@@ -20346,7 +20347,7 @@
       </c>
       <c r="F664" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.920614</t>
+          <t>2021-10-05 14:21:04.239092</t>
         </is>
       </c>
     </row>
@@ -20376,7 +20377,7 @@
       </c>
       <c r="F665" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.920616</t>
+          <t>2021-10-05 14:21:04.239095</t>
         </is>
       </c>
     </row>
@@ -20406,7 +20407,7 @@
       </c>
       <c r="F666" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.920619</t>
+          <t>2021-10-05 14:21:04.239098</t>
         </is>
       </c>
     </row>
@@ -20436,7 +20437,7 @@
       </c>
       <c r="F667" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.920622</t>
+          <t>2021-10-05 14:21:04.239101</t>
         </is>
       </c>
     </row>
@@ -20466,7 +20467,7 @@
       </c>
       <c r="F668" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.920625</t>
+          <t>2021-10-05 14:21:04.239103</t>
         </is>
       </c>
     </row>
@@ -20496,7 +20497,7 @@
       </c>
       <c r="F669" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.920627</t>
+          <t>2021-10-05 14:21:04.239106</t>
         </is>
       </c>
     </row>
@@ -20526,7 +20527,7 @@
       </c>
       <c r="F670" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.920630</t>
+          <t>2021-10-05 14:21:04.239109</t>
         </is>
       </c>
     </row>
@@ -20556,7 +20557,7 @@
       </c>
       <c r="F671" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.920633</t>
+          <t>2021-10-05 14:21:04.239112</t>
         </is>
       </c>
     </row>
@@ -20586,7 +20587,7 @@
       </c>
       <c r="F672" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.920635</t>
+          <t>2021-10-05 14:21:04.239115</t>
         </is>
       </c>
     </row>
@@ -20616,7 +20617,7 @@
       </c>
       <c r="F673" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.920638</t>
+          <t>2021-10-05 14:21:04.239117</t>
         </is>
       </c>
     </row>
@@ -20646,7 +20647,7 @@
       </c>
       <c r="F674" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.920642</t>
+          <t>2021-10-05 14:21:04.239121</t>
         </is>
       </c>
     </row>
@@ -20676,7 +20677,7 @@
       </c>
       <c r="F675" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.920645</t>
+          <t>2021-10-05 14:21:04.239124</t>
         </is>
       </c>
     </row>
@@ -20706,7 +20707,7 @@
       </c>
       <c r="F676" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.920648</t>
+          <t>2021-10-05 14:21:04.239127</t>
         </is>
       </c>
     </row>
@@ -20736,7 +20737,7 @@
       </c>
       <c r="F677" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.920651</t>
+          <t>2021-10-05 14:21:04.239130</t>
         </is>
       </c>
     </row>
@@ -20766,7 +20767,7 @@
       </c>
       <c r="F678" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.920654</t>
+          <t>2021-10-05 14:21:04.239132</t>
         </is>
       </c>
     </row>
@@ -20796,7 +20797,7 @@
       </c>
       <c r="F679" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.920656</t>
+          <t>2021-10-05 14:21:04.239135</t>
         </is>
       </c>
     </row>
@@ -20826,7 +20827,7 @@
       </c>
       <c r="F680" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.920659</t>
+          <t>2021-10-05 14:21:04.239138</t>
         </is>
       </c>
     </row>
@@ -20856,7 +20857,7 @@
       </c>
       <c r="F681" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.920662</t>
+          <t>2021-10-05 14:21:04.239141</t>
         </is>
       </c>
     </row>
@@ -20886,7 +20887,7 @@
       </c>
       <c r="F682" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.920665</t>
+          <t>2021-10-05 14:21:04.239144</t>
         </is>
       </c>
     </row>
@@ -20916,7 +20917,7 @@
       </c>
       <c r="F683" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.920668</t>
+          <t>2021-10-05 14:21:04.239146</t>
         </is>
       </c>
     </row>
@@ -20946,7 +20947,7 @@
       </c>
       <c r="F684" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.920670</t>
+          <t>2021-10-05 14:21:04.239149</t>
         </is>
       </c>
     </row>
@@ -20976,7 +20977,7 @@
       </c>
       <c r="F685" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.920673</t>
+          <t>2021-10-05 14:21:04.239152</t>
         </is>
       </c>
     </row>
@@ -21006,7 +21007,7 @@
       </c>
       <c r="F686" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.920676</t>
+          <t>2021-10-05 14:21:04.239154</t>
         </is>
       </c>
     </row>
@@ -21036,7 +21037,7 @@
       </c>
       <c r="F687" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.920678</t>
+          <t>2021-10-05 14:21:04.239157</t>
         </is>
       </c>
     </row>
@@ -21066,7 +21067,7 @@
       </c>
       <c r="F688" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.920681</t>
+          <t>2021-10-05 14:21:04.239160</t>
         </is>
       </c>
     </row>
@@ -21096,7 +21097,7 @@
       </c>
       <c r="F689" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.920684</t>
+          <t>2021-10-05 14:21:04.239163</t>
         </is>
       </c>
     </row>
@@ -21126,7 +21127,7 @@
       </c>
       <c r="F690" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.920686</t>
+          <t>2021-10-05 14:21:04.239165</t>
         </is>
       </c>
     </row>
@@ -21156,7 +21157,7 @@
       </c>
       <c r="F691" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.920689</t>
+          <t>2021-10-05 14:21:04.239168</t>
         </is>
       </c>
     </row>
@@ -21186,7 +21187,7 @@
       </c>
       <c r="F692" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.920692</t>
+          <t>2021-10-05 14:21:04.239171</t>
         </is>
       </c>
     </row>
@@ -21216,7 +21217,7 @@
       </c>
       <c r="F693" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.920694</t>
+          <t>2021-10-05 14:21:04.239174</t>
         </is>
       </c>
     </row>
@@ -21246,7 +21247,7 @@
       </c>
       <c r="F694" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.920697</t>
+          <t>2021-10-05 14:21:04.239177</t>
         </is>
       </c>
     </row>
@@ -21276,7 +21277,7 @@
       </c>
       <c r="F695" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.920700</t>
+          <t>2021-10-05 14:21:04.239179</t>
         </is>
       </c>
     </row>
@@ -21306,7 +21307,7 @@
       </c>
       <c r="F696" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.920702</t>
+          <t>2021-10-05 14:21:04.239182</t>
         </is>
       </c>
     </row>
@@ -21336,7 +21337,7 @@
       </c>
       <c r="F697" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.920705</t>
+          <t>2021-10-05 14:21:04.239185</t>
         </is>
       </c>
     </row>
@@ -21366,7 +21367,7 @@
       </c>
       <c r="F698" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.920707</t>
+          <t>2021-10-05 14:21:04.239188</t>
         </is>
       </c>
     </row>
@@ -21396,7 +21397,7 @@
       </c>
       <c r="F699" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.920710</t>
+          <t>2021-10-05 14:21:04.239191</t>
         </is>
       </c>
     </row>
@@ -21426,7 +21427,7 @@
       </c>
       <c r="F700" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.920713</t>
+          <t>2021-10-05 14:21:04.239193</t>
         </is>
       </c>
     </row>
@@ -21456,7 +21457,7 @@
       </c>
       <c r="F701" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.920715</t>
+          <t>2021-10-05 14:21:04.239196</t>
         </is>
       </c>
     </row>
@@ -21486,7 +21487,7 @@
       </c>
       <c r="F702" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.920718</t>
+          <t>2021-10-05 14:21:04.239199</t>
         </is>
       </c>
     </row>
@@ -21516,7 +21517,7 @@
       </c>
       <c r="F703" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.920720</t>
+          <t>2021-10-05 14:21:04.239202</t>
         </is>
       </c>
     </row>
@@ -21546,7 +21547,7 @@
       </c>
       <c r="F704" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.920723</t>
+          <t>2021-10-05 14:21:04.239205</t>
         </is>
       </c>
     </row>
@@ -21576,7 +21577,7 @@
       </c>
       <c r="F705" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.920726</t>
+          <t>2021-10-05 14:21:04.239207</t>
         </is>
       </c>
     </row>
@@ -21606,7 +21607,7 @@
       </c>
       <c r="F706" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.920728</t>
+          <t>2021-10-05 14:21:04.239210</t>
         </is>
       </c>
     </row>
@@ -21636,7 +21637,7 @@
       </c>
       <c r="F707" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.920731</t>
+          <t>2021-10-05 14:21:04.239213</t>
         </is>
       </c>
     </row>
@@ -21666,7 +21667,7 @@
       </c>
       <c r="F708" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.920733</t>
+          <t>2021-10-05 14:21:04.239216</t>
         </is>
       </c>
     </row>
@@ -21696,7 +21697,7 @@
       </c>
       <c r="F709" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.920736</t>
+          <t>2021-10-05 14:21:04.239219</t>
         </is>
       </c>
     </row>
@@ -21726,7 +21727,7 @@
       </c>
       <c r="F710" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.920739</t>
+          <t>2021-10-05 14:21:04.239222</t>
         </is>
       </c>
     </row>
@@ -21756,7 +21757,7 @@
       </c>
       <c r="F711" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.920741</t>
+          <t>2021-10-05 14:21:04.239225</t>
         </is>
       </c>
     </row>
@@ -21786,7 +21787,7 @@
       </c>
       <c r="F712" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.920744</t>
+          <t>2021-10-05 14:21:04.239227</t>
         </is>
       </c>
     </row>
@@ -21816,7 +21817,7 @@
       </c>
       <c r="F713" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.920746</t>
+          <t>2021-10-05 14:21:04.239230</t>
         </is>
       </c>
     </row>
@@ -21846,7 +21847,7 @@
       </c>
       <c r="F714" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.920749</t>
+          <t>2021-10-05 14:21:04.239233</t>
         </is>
       </c>
     </row>
@@ -21876,7 +21877,7 @@
       </c>
       <c r="F715" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.920752</t>
+          <t>2021-10-05 14:21:04.239235</t>
         </is>
       </c>
     </row>
@@ -21906,7 +21907,7 @@
       </c>
       <c r="F716" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.920754</t>
+          <t>2021-10-05 14:21:04.239238</t>
         </is>
       </c>
     </row>
@@ -21936,7 +21937,7 @@
       </c>
       <c r="F717" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.920757</t>
+          <t>2021-10-05 14:21:04.239241</t>
         </is>
       </c>
     </row>
@@ -21966,7 +21967,7 @@
       </c>
       <c r="F718" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.920759</t>
+          <t>2021-10-05 14:21:04.239244</t>
         </is>
       </c>
     </row>
@@ -21996,7 +21997,7 @@
       </c>
       <c r="F719" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.920762</t>
+          <t>2021-10-05 14:21:04.239247</t>
         </is>
       </c>
     </row>
@@ -22026,7 +22027,7 @@
       </c>
       <c r="F720" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.920765</t>
+          <t>2021-10-05 14:21:04.239249</t>
         </is>
       </c>
     </row>
@@ -22056,7 +22057,7 @@
       </c>
       <c r="F721" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.920767</t>
+          <t>2021-10-05 14:21:04.239252</t>
         </is>
       </c>
     </row>
@@ -22086,7 +22087,7 @@
       </c>
       <c r="F722" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.920770</t>
+          <t>2021-10-05 14:21:04.239255</t>
         </is>
       </c>
     </row>
@@ -22116,7 +22117,7 @@
       </c>
       <c r="F723" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.920772</t>
+          <t>2021-10-05 14:21:04.239258</t>
         </is>
       </c>
     </row>
@@ -22146,7 +22147,7 @@
       </c>
       <c r="F724" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.920775</t>
+          <t>2021-10-05 14:21:04.239261</t>
         </is>
       </c>
     </row>
@@ -22176,7 +22177,7 @@
       </c>
       <c r="F725" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.920778</t>
+          <t>2021-10-05 14:21:04.239264</t>
         </is>
       </c>
     </row>
@@ -22206,7 +22207,7 @@
       </c>
       <c r="F726" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.920780</t>
+          <t>2021-10-05 14:21:04.239266</t>
         </is>
       </c>
     </row>
@@ -22236,7 +22237,7 @@
       </c>
       <c r="F727" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.920783</t>
+          <t>2021-10-05 14:21:04.239269</t>
         </is>
       </c>
     </row>
@@ -22266,7 +22267,7 @@
       </c>
       <c r="F728" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.920786</t>
+          <t>2021-10-05 14:21:04.239272</t>
         </is>
       </c>
     </row>
@@ -22296,7 +22297,7 @@
       </c>
       <c r="F729" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.920788</t>
+          <t>2021-10-05 14:21:04.239275</t>
         </is>
       </c>
     </row>
@@ -22326,7 +22327,7 @@
       </c>
       <c r="F730" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.920791</t>
+          <t>2021-10-05 14:21:04.239278</t>
         </is>
       </c>
     </row>
@@ -22356,7 +22357,7 @@
       </c>
       <c r="F731" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.920793</t>
+          <t>2021-10-05 14:21:04.239280</t>
         </is>
       </c>
     </row>
@@ -22386,7 +22387,7 @@
       </c>
       <c r="F732" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.920796</t>
+          <t>2021-10-05 14:21:04.239283</t>
         </is>
       </c>
     </row>
@@ -22416,7 +22417,7 @@
       </c>
       <c r="F733" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.920799</t>
+          <t>2021-10-05 14:21:04.239286</t>
         </is>
       </c>
     </row>
@@ -22446,7 +22447,7 @@
       </c>
       <c r="F734" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.920801</t>
+          <t>2021-10-05 14:21:04.239289</t>
         </is>
       </c>
     </row>
@@ -22476,7 +22477,7 @@
       </c>
       <c r="F735" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.920804</t>
+          <t>2021-10-05 14:21:04.239291</t>
         </is>
       </c>
     </row>
@@ -22506,7 +22507,7 @@
       </c>
       <c r="F736" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.920806</t>
+          <t>2021-10-05 14:21:04.239294</t>
         </is>
       </c>
     </row>
@@ -22536,7 +22537,7 @@
       </c>
       <c r="F737" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.920809</t>
+          <t>2021-10-05 14:21:04.239297</t>
         </is>
       </c>
     </row>
@@ -22566,7 +22567,7 @@
       </c>
       <c r="F738" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.920811</t>
+          <t>2021-10-05 14:21:04.239300</t>
         </is>
       </c>
     </row>
@@ -22596,7 +22597,7 @@
       </c>
       <c r="F739" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.920814</t>
+          <t>2021-10-05 14:21:04.239303</t>
         </is>
       </c>
     </row>
@@ -22626,7 +22627,7 @@
       </c>
       <c r="F740" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.920817</t>
+          <t>2021-10-05 14:21:04.239305</t>
         </is>
       </c>
     </row>
@@ -22656,7 +22657,7 @@
       </c>
       <c r="F741" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.920819</t>
+          <t>2021-10-05 14:21:04.239308</t>
         </is>
       </c>
     </row>
@@ -22686,7 +22687,7 @@
       </c>
       <c r="F742" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.920822</t>
+          <t>2021-10-05 14:21:04.239311</t>
         </is>
       </c>
     </row>
@@ -22716,7 +22717,7 @@
       </c>
       <c r="F743" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.920824</t>
+          <t>2021-10-05 14:21:04.239314</t>
         </is>
       </c>
     </row>
@@ -22746,7 +22747,7 @@
       </c>
       <c r="F744" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.920827</t>
+          <t>2021-10-05 14:21:04.239316</t>
         </is>
       </c>
     </row>
@@ -22776,7 +22777,7 @@
       </c>
       <c r="F745" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.920829</t>
+          <t>2021-10-05 14:21:04.239319</t>
         </is>
       </c>
     </row>
@@ -22806,7 +22807,7 @@
       </c>
       <c r="F746" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.920832</t>
+          <t>2021-10-05 14:21:04.239322</t>
         </is>
       </c>
     </row>
@@ -22836,7 +22837,7 @@
       </c>
       <c r="F747" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.920834</t>
+          <t>2021-10-05 14:21:04.239324</t>
         </is>
       </c>
     </row>
@@ -22866,7 +22867,7 @@
       </c>
       <c r="F748" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.920837</t>
+          <t>2021-10-05 14:21:04.239327</t>
         </is>
       </c>
     </row>
@@ -22896,7 +22897,7 @@
       </c>
       <c r="F749" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.920840</t>
+          <t>2021-10-05 14:21:04.239330</t>
         </is>
       </c>
     </row>
@@ -22926,7 +22927,7 @@
       </c>
       <c r="F750" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.920842</t>
+          <t>2021-10-05 14:21:04.239333</t>
         </is>
       </c>
     </row>
@@ -22956,7 +22957,7 @@
       </c>
       <c r="F751" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.920845</t>
+          <t>2021-10-05 14:21:04.239335</t>
         </is>
       </c>
     </row>
@@ -22986,7 +22987,7 @@
       </c>
       <c r="F752" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.920848</t>
+          <t>2021-10-05 14:21:04.239338</t>
         </is>
       </c>
     </row>
@@ -23016,7 +23017,7 @@
       </c>
       <c r="F753" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.920850</t>
+          <t>2021-10-05 14:21:04.239341</t>
         </is>
       </c>
     </row>
@@ -23046,7 +23047,7 @@
       </c>
       <c r="F754" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.920853</t>
+          <t>2021-10-05 14:21:04.239344</t>
         </is>
       </c>
     </row>
@@ -23076,7 +23077,7 @@
       </c>
       <c r="F755" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.920855</t>
+          <t>2021-10-05 14:21:04.239346</t>
         </is>
       </c>
     </row>
@@ -23106,7 +23107,7 @@
       </c>
       <c r="F756" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.920858</t>
+          <t>2021-10-05 14:21:04.239349</t>
         </is>
       </c>
     </row>
@@ -23136,7 +23137,7 @@
       </c>
       <c r="F757" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.920860</t>
+          <t>2021-10-05 14:21:04.239352</t>
         </is>
       </c>
     </row>
@@ -23166,7 +23167,7 @@
       </c>
       <c r="F758" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.920863</t>
+          <t>2021-10-05 14:21:04.239354</t>
         </is>
       </c>
     </row>
@@ -23196,7 +23197,7 @@
       </c>
       <c r="F759" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.920866</t>
+          <t>2021-10-05 14:21:04.239357</t>
         </is>
       </c>
     </row>
@@ -23226,7 +23227,7 @@
       </c>
       <c r="F760" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.920868</t>
+          <t>2021-10-05 14:21:04.239360</t>
         </is>
       </c>
     </row>
@@ -23256,7 +23257,7 @@
       </c>
       <c r="F761" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.920871</t>
+          <t>2021-10-05 14:21:04.239363</t>
         </is>
       </c>
     </row>
@@ -23286,7 +23287,7 @@
       </c>
       <c r="F762" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.920875</t>
+          <t>2021-10-05 14:21:04.239367</t>
         </is>
       </c>
     </row>
@@ -23316,7 +23317,7 @@
       </c>
       <c r="F763" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.920878</t>
+          <t>2021-10-05 14:21:04.239370</t>
         </is>
       </c>
     </row>
@@ -23346,7 +23347,7 @@
       </c>
       <c r="F764" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.920881</t>
+          <t>2021-10-05 14:21:04.239373</t>
         </is>
       </c>
     </row>
@@ -23376,7 +23377,7 @@
       </c>
       <c r="F765" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.920883</t>
+          <t>2021-10-05 14:21:04.239376</t>
         </is>
       </c>
     </row>
@@ -23406,7 +23407,7 @@
       </c>
       <c r="F766" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.920886</t>
+          <t>2021-10-05 14:21:04.239378</t>
         </is>
       </c>
     </row>
@@ -23436,7 +23437,7 @@
       </c>
       <c r="F767" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.920888</t>
+          <t>2021-10-05 14:21:04.239381</t>
         </is>
       </c>
     </row>
@@ -23466,7 +23467,7 @@
       </c>
       <c r="F768" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.920891</t>
+          <t>2021-10-05 14:21:04.239384</t>
         </is>
       </c>
     </row>
@@ -23496,7 +23497,7 @@
       </c>
       <c r="F769" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.920894</t>
+          <t>2021-10-05 14:21:04.239387</t>
         </is>
       </c>
     </row>
@@ -23526,7 +23527,7 @@
       </c>
       <c r="F770" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.920896</t>
+          <t>2021-10-05 14:21:04.239389</t>
         </is>
       </c>
     </row>
@@ -23556,7 +23557,7 @@
       </c>
       <c r="F771" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.920899</t>
+          <t>2021-10-05 14:21:04.239392</t>
         </is>
       </c>
     </row>
@@ -23586,7 +23587,7 @@
       </c>
       <c r="F772" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.920901</t>
+          <t>2021-10-05 14:21:04.239395</t>
         </is>
       </c>
     </row>
@@ -23616,7 +23617,7 @@
       </c>
       <c r="F773" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.920904</t>
+          <t>2021-10-05 14:21:04.239398</t>
         </is>
       </c>
     </row>
@@ -23646,7 +23647,7 @@
       </c>
       <c r="F774" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.920906</t>
+          <t>2021-10-05 14:21:04.239400</t>
         </is>
       </c>
     </row>
@@ -23676,7 +23677,7 @@
       </c>
       <c r="F775" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.920909</t>
+          <t>2021-10-05 14:21:04.239403</t>
         </is>
       </c>
     </row>
@@ -23706,7 +23707,7 @@
       </c>
       <c r="F776" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.920912</t>
+          <t>2021-10-05 14:21:04.239406</t>
         </is>
       </c>
     </row>
@@ -23736,7 +23737,7 @@
       </c>
       <c r="F777" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.920914</t>
+          <t>2021-10-05 14:21:04.239409</t>
         </is>
       </c>
     </row>
@@ -23766,7 +23767,7 @@
       </c>
       <c r="F778" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.920917</t>
+          <t>2021-10-05 14:21:04.239412</t>
         </is>
       </c>
     </row>
@@ -23796,7 +23797,7 @@
       </c>
       <c r="F779" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.920920</t>
+          <t>2021-10-05 14:21:04.239414</t>
         </is>
       </c>
     </row>
@@ -23826,7 +23827,7 @@
       </c>
       <c r="F780" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.920922</t>
+          <t>2021-10-05 14:21:04.239417</t>
         </is>
       </c>
     </row>
@@ -23856,7 +23857,7 @@
       </c>
       <c r="F781" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.920925</t>
+          <t>2021-10-05 14:21:04.239420</t>
         </is>
       </c>
     </row>
@@ -23886,7 +23887,7 @@
       </c>
       <c r="F782" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.920928</t>
+          <t>2021-10-05 14:21:04.239423</t>
         </is>
       </c>
     </row>
@@ -23916,7 +23917,7 @@
       </c>
       <c r="F783" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.920930</t>
+          <t>2021-10-05 14:21:04.239426</t>
         </is>
       </c>
     </row>
@@ -23946,7 +23947,7 @@
       </c>
       <c r="F784" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.920933</t>
+          <t>2021-10-05 14:21:04.239428</t>
         </is>
       </c>
     </row>
@@ -23976,7 +23977,7 @@
       </c>
       <c r="F785" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.920936</t>
+          <t>2021-10-05 14:21:04.239431</t>
         </is>
       </c>
     </row>
@@ -24006,7 +24007,7 @@
       </c>
       <c r="F786" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.920938</t>
+          <t>2021-10-05 14:21:04.239434</t>
         </is>
       </c>
     </row>
@@ -24036,7 +24037,7 @@
       </c>
       <c r="F787" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.920941</t>
+          <t>2021-10-05 14:21:04.239436</t>
         </is>
       </c>
     </row>
@@ -24066,7 +24067,7 @@
       </c>
       <c r="F788" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.920944</t>
+          <t>2021-10-05 14:21:04.239439</t>
         </is>
       </c>
     </row>
@@ -24096,7 +24097,7 @@
       </c>
       <c r="F789" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.920946</t>
+          <t>2021-10-05 14:21:04.239442</t>
         </is>
       </c>
     </row>
@@ -24126,7 +24127,7 @@
       </c>
       <c r="F790" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.920949</t>
+          <t>2021-10-05 14:21:04.239445</t>
         </is>
       </c>
     </row>
@@ -24156,7 +24157,7 @@
       </c>
       <c r="F791" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.920951</t>
+          <t>2021-10-05 14:21:04.239448</t>
         </is>
       </c>
     </row>
@@ -24186,7 +24187,7 @@
       </c>
       <c r="F792" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.920954</t>
+          <t>2021-10-05 14:21:04.239451</t>
         </is>
       </c>
     </row>
@@ -24216,7 +24217,7 @@
       </c>
       <c r="F793" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.920957</t>
+          <t>2021-10-05 14:21:04.239454</t>
         </is>
       </c>
     </row>
@@ -24246,7 +24247,7 @@
       </c>
       <c r="F794" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.920959</t>
+          <t>2021-10-05 14:21:04.239456</t>
         </is>
       </c>
     </row>
@@ -24276,7 +24277,7 @@
       </c>
       <c r="F795" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.920962</t>
+          <t>2021-10-05 14:21:04.239459</t>
         </is>
       </c>
     </row>
@@ -24306,7 +24307,7 @@
       </c>
       <c r="F796" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.920964</t>
+          <t>2021-10-05 14:21:04.239462</t>
         </is>
       </c>
     </row>
@@ -24336,7 +24337,7 @@
       </c>
       <c r="F797" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.920967</t>
+          <t>2021-10-05 14:21:04.239465</t>
         </is>
       </c>
     </row>
@@ -24366,7 +24367,7 @@
       </c>
       <c r="F798" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.920970</t>
+          <t>2021-10-05 14:21:04.239467</t>
         </is>
       </c>
     </row>
@@ -24396,7 +24397,7 @@
       </c>
       <c r="F799" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.920972</t>
+          <t>2021-10-05 14:21:04.239470</t>
         </is>
       </c>
     </row>
@@ -24426,7 +24427,7 @@
       </c>
       <c r="F800" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.920975</t>
+          <t>2021-10-05 14:21:04.239473</t>
         </is>
       </c>
     </row>
@@ -24456,7 +24457,7 @@
       </c>
       <c r="F801" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.920978</t>
+          <t>2021-10-05 14:21:04.239476</t>
         </is>
       </c>
     </row>
@@ -24486,7 +24487,7 @@
       </c>
       <c r="F802" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.920980</t>
+          <t>2021-10-05 14:21:04.239478</t>
         </is>
       </c>
     </row>
@@ -24516,7 +24517,7 @@
       </c>
       <c r="F803" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.920983</t>
+          <t>2021-10-05 14:21:04.239482</t>
         </is>
       </c>
     </row>
@@ -24546,7 +24547,7 @@
       </c>
       <c r="F804" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.920986</t>
+          <t>2021-10-05 14:21:04.239484</t>
         </is>
       </c>
     </row>
@@ -24576,7 +24577,7 @@
       </c>
       <c r="F805" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.920988</t>
+          <t>2021-10-05 14:21:04.239487</t>
         </is>
       </c>
     </row>
@@ -24606,7 +24607,7 @@
       </c>
       <c r="F806" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.920991</t>
+          <t>2021-10-05 14:21:04.239490</t>
         </is>
       </c>
     </row>
@@ -24636,7 +24637,7 @@
       </c>
       <c r="F807" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.920993</t>
+          <t>2021-10-05 14:21:04.239492</t>
         </is>
       </c>
     </row>
@@ -24666,7 +24667,7 @@
       </c>
       <c r="F808" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.920996</t>
+          <t>2021-10-05 14:21:04.239495</t>
         </is>
       </c>
     </row>
@@ -24696,7 +24697,7 @@
       </c>
       <c r="F809" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.920998</t>
+          <t>2021-10-05 14:21:04.239498</t>
         </is>
       </c>
     </row>
@@ -24726,7 +24727,7 @@
       </c>
       <c r="F810" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.921001</t>
+          <t>2021-10-05 14:21:04.239501</t>
         </is>
       </c>
     </row>
@@ -24756,7 +24757,7 @@
       </c>
       <c r="F811" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.921004</t>
+          <t>2021-10-05 14:21:04.239503</t>
         </is>
       </c>
     </row>
@@ -24786,7 +24787,7 @@
       </c>
       <c r="F812" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.921006</t>
+          <t>2021-10-05 14:21:04.239506</t>
         </is>
       </c>
     </row>
@@ -24816,7 +24817,7 @@
       </c>
       <c r="F813" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.921009</t>
+          <t>2021-10-05 14:21:04.239509</t>
         </is>
       </c>
     </row>
@@ -24846,7 +24847,7 @@
       </c>
       <c r="F814" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.921011</t>
+          <t>2021-10-05 14:21:04.239512</t>
         </is>
       </c>
     </row>
@@ -24876,7 +24877,7 @@
       </c>
       <c r="F815" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.921014</t>
+          <t>2021-10-05 14:21:04.239514</t>
         </is>
       </c>
     </row>
@@ -24906,7 +24907,7 @@
       </c>
       <c r="F816" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.921016</t>
+          <t>2021-10-05 14:21:04.239517</t>
         </is>
       </c>
     </row>
@@ -24936,7 +24937,7 @@
       </c>
       <c r="F817" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.921019</t>
+          <t>2021-10-05 14:21:04.239520</t>
         </is>
       </c>
     </row>
@@ -24966,7 +24967,7 @@
       </c>
       <c r="F818" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.921022</t>
+          <t>2021-10-05 14:21:04.239523</t>
         </is>
       </c>
     </row>
@@ -24996,7 +24997,7 @@
       </c>
       <c r="F819" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.921024</t>
+          <t>2021-10-05 14:21:04.239525</t>
         </is>
       </c>
     </row>
@@ -25026,7 +25027,7 @@
       </c>
       <c r="F820" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.921027</t>
+          <t>2021-10-05 14:21:04.239528</t>
         </is>
       </c>
     </row>
@@ -25056,7 +25057,7 @@
       </c>
       <c r="F821" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.921030</t>
+          <t>2021-10-05 14:21:04.239531</t>
         </is>
       </c>
     </row>
@@ -25086,7 +25087,7 @@
       </c>
       <c r="F822" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.921032</t>
+          <t>2021-10-05 14:21:04.239534</t>
         </is>
       </c>
     </row>
@@ -25116,7 +25117,7 @@
       </c>
       <c r="F823" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.921035</t>
+          <t>2021-10-05 14:21:04.239537</t>
         </is>
       </c>
     </row>
@@ -25146,7 +25147,7 @@
       </c>
       <c r="F824" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.921038</t>
+          <t>2021-10-05 14:21:04.239539</t>
         </is>
       </c>
     </row>
@@ -25176,7 +25177,7 @@
       </c>
       <c r="F825" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.921040</t>
+          <t>2021-10-05 14:21:04.239542</t>
         </is>
       </c>
     </row>
@@ -25206,7 +25207,7 @@
       </c>
       <c r="F826" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.921043</t>
+          <t>2021-10-05 14:21:04.239545</t>
         </is>
       </c>
     </row>
@@ -25236,7 +25237,7 @@
       </c>
       <c r="F827" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.921046</t>
+          <t>2021-10-05 14:21:04.239548</t>
         </is>
       </c>
     </row>
@@ -25266,7 +25267,7 @@
       </c>
       <c r="F828" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.921048</t>
+          <t>2021-10-05 14:21:04.239550</t>
         </is>
       </c>
     </row>
@@ -25296,7 +25297,7 @@
       </c>
       <c r="F829" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.921051</t>
+          <t>2021-10-05 14:21:04.239553</t>
         </is>
       </c>
     </row>
@@ -25326,7 +25327,7 @@
       </c>
       <c r="F830" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.921053</t>
+          <t>2021-10-05 14:21:04.239556</t>
         </is>
       </c>
     </row>
@@ -25356,7 +25357,7 @@
       </c>
       <c r="F831" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.921056</t>
+          <t>2021-10-05 14:21:04.239559</t>
         </is>
       </c>
     </row>
@@ -25386,7 +25387,7 @@
       </c>
       <c r="F832" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.921059</t>
+          <t>2021-10-05 14:21:04.239561</t>
         </is>
       </c>
     </row>
@@ -25416,7 +25417,7 @@
       </c>
       <c r="F833" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.921061</t>
+          <t>2021-10-05 14:21:04.239564</t>
         </is>
       </c>
     </row>
@@ -25446,7 +25447,7 @@
       </c>
       <c r="F834" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.921064</t>
+          <t>2021-10-05 14:21:04.239567</t>
         </is>
       </c>
     </row>
@@ -25476,7 +25477,7 @@
       </c>
       <c r="F835" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.921067</t>
+          <t>2021-10-05 14:21:04.239571</t>
         </is>
       </c>
     </row>
@@ -25506,7 +25507,7 @@
       </c>
       <c r="F836" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.921069</t>
+          <t>2021-10-05 14:21:04.239574</t>
         </is>
       </c>
     </row>
@@ -25536,7 +25537,7 @@
       </c>
       <c r="F837" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.921072</t>
+          <t>2021-10-05 14:21:04.239577</t>
         </is>
       </c>
     </row>
@@ -25566,7 +25567,7 @@
       </c>
       <c r="F838" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.921075</t>
+          <t>2021-10-05 14:21:04.239580</t>
         </is>
       </c>
     </row>
@@ -25596,7 +25597,7 @@
       </c>
       <c r="F839" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.921077</t>
+          <t>2021-10-05 14:21:04.239582</t>
         </is>
       </c>
     </row>
@@ -25626,7 +25627,7 @@
       </c>
       <c r="F840" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.921080</t>
+          <t>2021-10-05 14:21:04.239585</t>
         </is>
       </c>
     </row>
@@ -25656,7 +25657,7 @@
       </c>
       <c r="F841" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.921082</t>
+          <t>2021-10-05 14:21:04.239588</t>
         </is>
       </c>
     </row>
@@ -25686,7 +25687,7 @@
       </c>
       <c r="F842" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.921085</t>
+          <t>2021-10-05 14:21:04.239590</t>
         </is>
       </c>
     </row>
@@ -25716,7 +25717,7 @@
       </c>
       <c r="F843" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.921087</t>
+          <t>2021-10-05 14:21:04.239593</t>
         </is>
       </c>
     </row>
@@ -25746,7 +25747,7 @@
       </c>
       <c r="F844" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.921090</t>
+          <t>2021-10-05 14:21:04.239596</t>
         </is>
       </c>
     </row>
@@ -25776,7 +25777,7 @@
       </c>
       <c r="F845" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.921092</t>
+          <t>2021-10-05 14:21:04.239598</t>
         </is>
       </c>
     </row>
@@ -25806,7 +25807,7 @@
       </c>
       <c r="F846" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.921095</t>
+          <t>2021-10-05 14:21:04.239601</t>
         </is>
       </c>
     </row>
@@ -25836,7 +25837,7 @@
       </c>
       <c r="F847" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.921097</t>
+          <t>2021-10-05 14:21:04.239604</t>
         </is>
       </c>
     </row>
@@ -25866,7 +25867,7 @@
       </c>
       <c r="F848" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.921100</t>
+          <t>2021-10-05 14:21:04.239607</t>
         </is>
       </c>
     </row>
@@ -25896,7 +25897,7 @@
       </c>
       <c r="F849" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.921102</t>
+          <t>2021-10-05 14:21:04.239610</t>
         </is>
       </c>
     </row>
@@ -25926,7 +25927,7 @@
       </c>
       <c r="F850" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.921105</t>
+          <t>2021-10-05 14:21:04.239612</t>
         </is>
       </c>
     </row>
@@ -25956,7 +25957,7 @@
       </c>
       <c r="F851" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.921108</t>
+          <t>2021-10-05 14:21:04.239615</t>
         </is>
       </c>
     </row>
@@ -25986,7 +25987,7 @@
       </c>
       <c r="F852" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.921110</t>
+          <t>2021-10-05 14:21:04.239618</t>
         </is>
       </c>
     </row>
@@ -26016,7 +26017,7 @@
       </c>
       <c r="F853" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.921113</t>
+          <t>2021-10-05 14:21:04.239620</t>
         </is>
       </c>
     </row>
@@ -26046,7 +26047,7 @@
       </c>
       <c r="F854" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.921116</t>
+          <t>2021-10-05 14:21:04.239623</t>
         </is>
       </c>
     </row>
@@ -26076,7 +26077,7 @@
       </c>
       <c r="F855" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.921118</t>
+          <t>2021-10-05 14:21:04.239626</t>
         </is>
       </c>
     </row>
@@ -26106,7 +26107,7 @@
       </c>
       <c r="F856" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.921121</t>
+          <t>2021-10-05 14:21:04.239629</t>
         </is>
       </c>
     </row>
@@ -26136,7 +26137,7 @@
       </c>
       <c r="F857" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.921123</t>
+          <t>2021-10-05 14:21:04.239631</t>
         </is>
       </c>
     </row>
@@ -26166,7 +26167,7 @@
       </c>
       <c r="F858" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.921126</t>
+          <t>2021-10-05 14:21:04.239634</t>
         </is>
       </c>
     </row>
@@ -26196,7 +26197,7 @@
       </c>
       <c r="F859" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.921129</t>
+          <t>2021-10-05 14:21:04.239637</t>
         </is>
       </c>
     </row>
@@ -26226,7 +26227,7 @@
       </c>
       <c r="F860" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.921131</t>
+          <t>2021-10-05 14:21:04.239640</t>
         </is>
       </c>
     </row>
@@ -26256,7 +26257,7 @@
       </c>
       <c r="F861" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.921134</t>
+          <t>2021-10-05 14:21:04.239642</t>
         </is>
       </c>
     </row>
@@ -26286,7 +26287,7 @@
       </c>
       <c r="F862" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.921139</t>
+          <t>2021-10-05 14:21:04.239646</t>
         </is>
       </c>
     </row>
@@ -26316,7 +26317,7 @@
       </c>
       <c r="F863" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.921142</t>
+          <t>2021-10-05 14:21:04.239649</t>
         </is>
       </c>
     </row>
@@ -26346,7 +26347,7 @@
       </c>
       <c r="F864" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.921144</t>
+          <t>2021-10-05 14:21:04.239652</t>
         </is>
       </c>
     </row>
@@ -26376,7 +26377,7 @@
       </c>
       <c r="F865" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.921147</t>
+          <t>2021-10-05 14:21:04.239655</t>
         </is>
       </c>
     </row>
@@ -26406,7 +26407,7 @@
       </c>
       <c r="F866" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.921150</t>
+          <t>2021-10-05 14:21:04.239657</t>
         </is>
       </c>
     </row>
@@ -26436,7 +26437,7 @@
       </c>
       <c r="F867" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.921152</t>
+          <t>2021-10-05 14:21:04.239660</t>
         </is>
       </c>
     </row>
@@ -26466,7 +26467,7 @@
       </c>
       <c r="F868" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.921155</t>
+          <t>2021-10-05 14:21:04.239663</t>
         </is>
       </c>
     </row>
@@ -26496,7 +26497,7 @@
       </c>
       <c r="F869" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.921157</t>
+          <t>2021-10-05 14:21:04.239666</t>
         </is>
       </c>
     </row>
@@ -26526,7 +26527,7 @@
       </c>
       <c r="F870" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.921160</t>
+          <t>2021-10-05 14:21:04.239668</t>
         </is>
       </c>
     </row>
@@ -26556,7 +26557,7 @@
       </c>
       <c r="F871" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.921163</t>
+          <t>2021-10-05 14:21:04.239671</t>
         </is>
       </c>
     </row>
@@ -26586,7 +26587,7 @@
       </c>
       <c r="F872" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.921165</t>
+          <t>2021-10-05 14:21:04.239674</t>
         </is>
       </c>
     </row>
@@ -26616,7 +26617,7 @@
       </c>
       <c r="F873" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.921168</t>
+          <t>2021-10-05 14:21:04.239676</t>
         </is>
       </c>
     </row>
@@ -26646,7 +26647,7 @@
       </c>
       <c r="F874" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.921171</t>
+          <t>2021-10-05 14:21:04.239679</t>
         </is>
       </c>
     </row>
@@ -26676,7 +26677,7 @@
       </c>
       <c r="F875" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.921173</t>
+          <t>2021-10-05 14:21:04.239682</t>
         </is>
       </c>
     </row>
@@ -26706,7 +26707,7 @@
       </c>
       <c r="F876" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.921176</t>
+          <t>2021-10-05 14:21:04.239684</t>
         </is>
       </c>
     </row>
@@ -26736,7 +26737,7 @@
       </c>
       <c r="F877" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.921178</t>
+          <t>2021-10-05 14:21:04.239687</t>
         </is>
       </c>
     </row>
@@ -26766,7 +26767,7 @@
       </c>
       <c r="F878" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.921181</t>
+          <t>2021-10-05 14:21:04.239690</t>
         </is>
       </c>
     </row>
@@ -26796,7 +26797,7 @@
       </c>
       <c r="F879" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.921183</t>
+          <t>2021-10-05 14:21:04.239693</t>
         </is>
       </c>
     </row>
@@ -26826,7 +26827,7 @@
       </c>
       <c r="F880" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.921186</t>
+          <t>2021-10-05 14:21:04.239695</t>
         </is>
       </c>
     </row>
@@ -26856,7 +26857,7 @@
       </c>
       <c r="F881" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.921189</t>
+          <t>2021-10-05 14:21:04.239698</t>
         </is>
       </c>
     </row>
@@ -26886,7 +26887,7 @@
       </c>
       <c r="F882" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.921191</t>
+          <t>2021-10-05 14:21:04.239701</t>
         </is>
       </c>
     </row>
@@ -26916,7 +26917,7 @@
       </c>
       <c r="F883" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.921194</t>
+          <t>2021-10-05 14:21:04.239704</t>
         </is>
       </c>
     </row>
@@ -26946,7 +26947,7 @@
       </c>
       <c r="F884" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.921197</t>
+          <t>2021-10-05 14:21:04.239707</t>
         </is>
       </c>
     </row>
@@ -26976,7 +26977,7 @@
       </c>
       <c r="F885" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.921199</t>
+          <t>2021-10-05 14:21:04.239709</t>
         </is>
       </c>
     </row>
@@ -27006,7 +27007,7 @@
       </c>
       <c r="F886" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.921202</t>
+          <t>2021-10-05 14:21:04.239712</t>
         </is>
       </c>
     </row>
@@ -27036,7 +27037,7 @@
       </c>
       <c r="F887" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.921204</t>
+          <t>2021-10-05 14:21:04.239715</t>
         </is>
       </c>
     </row>
@@ -27066,7 +27067,7 @@
       </c>
       <c r="F888" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.921207</t>
+          <t>2021-10-05 14:21:04.239718</t>
         </is>
       </c>
     </row>
@@ -27096,7 +27097,7 @@
       </c>
       <c r="F889" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.921209</t>
+          <t>2021-10-05 14:21:04.239720</t>
         </is>
       </c>
     </row>
@@ -27126,7 +27127,7 @@
       </c>
       <c r="F890" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.921212</t>
+          <t>2021-10-05 14:21:04.239723</t>
         </is>
       </c>
     </row>
@@ -27156,7 +27157,7 @@
       </c>
       <c r="F891" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.921215</t>
+          <t>2021-10-05 14:21:04.239726</t>
         </is>
       </c>
     </row>
@@ -27186,7 +27187,7 @@
       </c>
       <c r="F892" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.921217</t>
+          <t>2021-10-05 14:21:04.239728</t>
         </is>
       </c>
     </row>
@@ -27216,7 +27217,7 @@
       </c>
       <c r="F893" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.921220</t>
+          <t>2021-10-05 14:21:04.239731</t>
         </is>
       </c>
     </row>
@@ -27246,7 +27247,7 @@
       </c>
       <c r="F894" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.921223</t>
+          <t>2021-10-05 14:21:04.239734</t>
         </is>
       </c>
     </row>
@@ -27276,7 +27277,7 @@
       </c>
       <c r="F895" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.921225</t>
+          <t>2021-10-05 14:21:04.239737</t>
         </is>
       </c>
     </row>
@@ -27306,7 +27307,7 @@
       </c>
       <c r="F896" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.921228</t>
+          <t>2021-10-05 14:21:04.239739</t>
         </is>
       </c>
     </row>
@@ -27336,7 +27337,7 @@
       </c>
       <c r="F897" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.921230</t>
+          <t>2021-10-05 14:21:04.239742</t>
         </is>
       </c>
     </row>
@@ -27366,7 +27367,7 @@
       </c>
       <c r="F898" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.921233</t>
+          <t>2021-10-05 14:21:04.239744</t>
         </is>
       </c>
     </row>
@@ -27396,7 +27397,7 @@
       </c>
       <c r="F899" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.921236</t>
+          <t>2021-10-05 14:21:04.239747</t>
         </is>
       </c>
     </row>
@@ -27426,7 +27427,7 @@
       </c>
       <c r="F900" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.921238</t>
+          <t>2021-10-05 14:21:04.239750</t>
         </is>
       </c>
     </row>
@@ -27456,7 +27457,7 @@
       </c>
       <c r="F901" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.921241</t>
+          <t>2021-10-05 14:21:04.239752</t>
         </is>
       </c>
     </row>
@@ -27486,7 +27487,7 @@
       </c>
       <c r="F902" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.921244</t>
+          <t>2021-10-05 14:21:04.239755</t>
         </is>
       </c>
     </row>
@@ -27516,7 +27517,7 @@
       </c>
       <c r="F903" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.921246</t>
+          <t>2021-10-05 14:21:04.239758</t>
         </is>
       </c>
     </row>
@@ -27546,7 +27547,7 @@
       </c>
       <c r="F904" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.921249</t>
+          <t>2021-10-05 14:21:04.239761</t>
         </is>
       </c>
     </row>
@@ -27576,7 +27577,7 @@
       </c>
       <c r="F905" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.921251</t>
+          <t>2021-10-05 14:21:04.239764</t>
         </is>
       </c>
     </row>
@@ -27606,7 +27607,7 @@
       </c>
       <c r="F906" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.921254</t>
+          <t>2021-10-05 14:21:04.239766</t>
         </is>
       </c>
     </row>
@@ -27636,7 +27637,7 @@
       </c>
       <c r="F907" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.921257</t>
+          <t>2021-10-05 14:21:04.239769</t>
         </is>
       </c>
     </row>
@@ -27666,7 +27667,7 @@
       </c>
       <c r="F908" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.921259</t>
+          <t>2021-10-05 14:21:04.239772</t>
         </is>
       </c>
     </row>
@@ -27696,7 +27697,7 @@
       </c>
       <c r="F909" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.921262</t>
+          <t>2021-10-05 14:21:04.239775</t>
         </is>
       </c>
     </row>
@@ -27726,7 +27727,7 @@
       </c>
       <c r="F910" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.921265</t>
+          <t>2021-10-05 14:21:04.239777</t>
         </is>
       </c>
     </row>
@@ -27756,7 +27757,7 @@
       </c>
       <c r="F911" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.921267</t>
+          <t>2021-10-05 14:21:04.239780</t>
         </is>
       </c>
     </row>
@@ -27786,7 +27787,91 @@
       </c>
       <c r="F912" t="inlineStr">
         <is>
-          <t>2021-10-05 13:40:30.921270</t>
+          <t>2021-10-05 14:21:04.239783</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>data_name</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>data_id</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>data_version</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>data_version_created</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>panel_query_time</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>panel_get_request</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Inborn errors of metabolism</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>467</v>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2.187</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>2021-10-04T10:36:42.923498Z</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2021-10-05 14:21:04.233608</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>https://panelapp.genomicsengland.co.uk/api/v1/panels/467/?format=json</t>
         </is>
       </c>
     </row>
